--- a/outputs/ML_Results/carown_LR_new/Paris.xlsx
+++ b/outputs/ML_Results/carown_LR_new/Paris.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ9" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ5" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ0" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ28" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ8" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ3" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ13" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ18" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ11" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ6" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ36" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ0" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ19" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.046697389228808</v>
+        <v>-1.091057835435155</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1346960898382994</v>
+        <v>0.1165342538532138</v>
       </c>
     </row>
     <row r="3">
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2511437181667019</v>
+        <v>0.2380185534574908</v>
       </c>
       <c r="C3" t="n">
-        <v>0.06731975638746281</v>
+        <v>0.08006472478050382</v>
       </c>
     </row>
     <row r="4">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.605879287699949</v>
+        <v>-0.6051288965357979</v>
       </c>
       <c r="C4" t="n">
-        <v>4.099436769606098e-08</v>
+        <v>3.909525920220448e-08</v>
       </c>
     </row>
     <row r="5">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.3596951637288128</v>
+        <v>-0.3272687088156638</v>
       </c>
       <c r="C5" t="n">
-        <v>0.001504478398027204</v>
+        <v>0.003805009918507816</v>
       </c>
     </row>
     <row r="6">
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.3755881206412489</v>
+        <v>-0.34593461167706</v>
       </c>
       <c r="C6" t="n">
-        <v>0.003142548947950658</v>
+        <v>0.006824654167022617</v>
       </c>
     </row>
     <row r="7">
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.02378895935214033</v>
+        <v>0.0254758018616819</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6505706015776533</v>
+        <v>0.6248217864197969</v>
       </c>
     </row>
     <row r="8">
@@ -544,10 +544,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0006293593171063215</v>
+        <v>0.0006193119004142719</v>
       </c>
       <c r="C8" t="n">
-        <v>2.420598319278406e-95</v>
+        <v>2.336801007287265e-94</v>
       </c>
     </row>
     <row r="9">
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01470865053677199</v>
+        <v>0.01560443590015928</v>
       </c>
       <c r="C9" t="n">
-        <v>8.203542253363313e-08</v>
+        <v>9.153859255679805e-09</v>
       </c>
     </row>
     <row r="10">
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.3061136960334492</v>
+        <v>0.2872708747171723</v>
       </c>
       <c r="C10" t="n">
-        <v>1.755764544788046e-05</v>
+        <v>4.730674812151071e-05</v>
       </c>
     </row>
     <row r="11">
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2468445034896701</v>
+        <v>0.2608469320018023</v>
       </c>
       <c r="C11" t="n">
-        <v>0.02633404674021765</v>
+        <v>0.01859782354126708</v>
       </c>
     </row>
     <row r="12">
@@ -596,10 +596,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.3409847037386646</v>
+        <v>0.2942950522364945</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01721631991333741</v>
+        <v>0.0389114161667671</v>
       </c>
     </row>
     <row r="13">
@@ -609,10 +609,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-3.682363143410061e-05</v>
+        <v>-3.815682238427897e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>1.031275097727255e-07</v>
+        <v>3.072837877437143e-08</v>
       </c>
     </row>
     <row r="14">
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.930671621725758e-08</v>
+        <v>3.482375533704187e-08</v>
       </c>
       <c r="C14" t="n">
-        <v>0.01232371902355272</v>
+        <v>0.02372238328714097</v>
       </c>
     </row>
     <row r="15">
@@ -635,10 +635,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.01292596740107326</v>
+        <v>0.02361106670871618</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4838868363513199</v>
+        <v>0.1951294939796817</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.04358254017070729</v>
+        <v>0.04088091788768929</v>
       </c>
       <c r="C16" t="n">
-        <v>0.001983806849212276</v>
+        <v>0.003481254498021092</v>
       </c>
     </row>
     <row r="17">
@@ -661,10 +661,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1.3127848149401</v>
+        <v>-1.434497791443122</v>
       </c>
       <c r="C17" t="n">
-        <v>0.002358783017433462</v>
+        <v>0.0008345243653968848</v>
       </c>
     </row>
     <row r="18">
@@ -674,10 +674,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.005805891041361247</v>
+        <v>-0.005055472600412131</v>
       </c>
       <c r="C18" t="n">
-        <v>0.08838074413736104</v>
+        <v>0.1351085928062693</v>
       </c>
     </row>
     <row r="19">
@@ -687,10 +687,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.005400690868534345</v>
+        <v>-0.005249322228888131</v>
       </c>
       <c r="C19" t="n">
-        <v>0.2372660869608327</v>
+        <v>0.2474031534973029</v>
       </c>
     </row>
     <row r="20">
@@ -700,10 +700,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.078250594429001</v>
+        <v>1.003092449900771</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0008689664033140319</v>
+        <v>0.001813748077867677</v>
       </c>
     </row>
     <row r="21">
@@ -713,10 +713,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.582672205776811</v>
+        <v>-0.7585342385590612</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1805929592636397</v>
+        <v>0.08067584597065579</v>
       </c>
     </row>
     <row r="22">
@@ -726,10 +726,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.0001230813209215799</v>
+        <v>-0.0001051331765325473</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0001462957648313874</v>
+        <v>0.0009503181410009372</v>
       </c>
     </row>
   </sheetData>
@@ -775,10 +775,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.307894926195297</v>
+        <v>-1.136088252543162</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0605185235086574</v>
+        <v>0.1005393758915084</v>
       </c>
     </row>
     <row r="3">
@@ -788,10 +788,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2021124078229547</v>
+        <v>0.2492120075724903</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1404388393178978</v>
+        <v>0.06319821468169619</v>
       </c>
     </row>
     <row r="4">
@@ -801,10 +801,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.6198896522540043</v>
+        <v>-0.6021028130958883</v>
       </c>
       <c r="C4" t="n">
-        <v>1.789615739350385e-08</v>
+        <v>3.694163056732953e-08</v>
       </c>
     </row>
     <row r="5">
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.3947710468731775</v>
+        <v>-0.3773552091932247</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0004787724032372307</v>
+        <v>0.0007667248151616028</v>
       </c>
     </row>
     <row r="6">
@@ -827,10 +827,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.3833324003995668</v>
+        <v>-0.3506610002558312</v>
       </c>
       <c r="C6" t="n">
-        <v>0.002334010044926185</v>
+        <v>0.005360787368924739</v>
       </c>
     </row>
     <row r="7">
@@ -840,10 +840,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.02690664305577216</v>
+        <v>0.01060414709372568</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6115938435295433</v>
+        <v>0.8355180353377952</v>
       </c>
     </row>
     <row r="8">
@@ -853,10 +853,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0006082792202489462</v>
+        <v>0.000631436455205822</v>
       </c>
       <c r="C8" t="n">
-        <v>5.719644523796449e-92</v>
+        <v>2.289823385424004e-97</v>
       </c>
     </row>
     <row r="9">
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01606944677436876</v>
+        <v>0.0146961352992925</v>
       </c>
       <c r="C9" t="n">
-        <v>3.664801810985736e-09</v>
+        <v>5.724074574534267e-08</v>
       </c>
     </row>
     <row r="10">
@@ -879,10 +879,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.2698390726781774</v>
+        <v>0.2595627328613814</v>
       </c>
       <c r="C10" t="n">
-        <v>0.000143845369356673</v>
+        <v>0.0002294136205586609</v>
       </c>
     </row>
     <row r="11">
@@ -892,10 +892,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2939056699172791</v>
+        <v>0.2761099430655474</v>
       </c>
       <c r="C11" t="n">
-        <v>0.008229718789639429</v>
+        <v>0.01292681474418307</v>
       </c>
     </row>
     <row r="12">
@@ -905,10 +905,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2702450316335572</v>
+        <v>0.2983707473330645</v>
       </c>
       <c r="C12" t="n">
-        <v>0.05943966707380786</v>
+        <v>0.0365439442015681</v>
       </c>
     </row>
     <row r="13">
@@ -918,10 +918,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-3.637488460158983e-05</v>
+        <v>-3.724295085999103e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>1.302075409662616e-07</v>
+        <v>8.421529715723469e-08</v>
       </c>
     </row>
     <row r="14">
@@ -931,10 +931,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.316571160692526e-08</v>
+        <v>4.068252488483164e-08</v>
       </c>
       <c r="C14" t="n">
-        <v>0.03093636990045016</v>
+        <v>0.009022096375436958</v>
       </c>
     </row>
     <row r="15">
@@ -944,10 +944,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.009040287467245656</v>
+        <v>0.0007806200466490547</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6215010634307431</v>
+        <v>0.965902018804958</v>
       </c>
     </row>
     <row r="16">
@@ -957,10 +957,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.04915761751291414</v>
+        <v>0.04738163222669815</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0004847253191440809</v>
+        <v>0.0007380687304294772</v>
       </c>
     </row>
     <row r="17">
@@ -970,10 +970,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1.152769398433321</v>
+        <v>-1.341339258217231</v>
       </c>
       <c r="C17" t="n">
-        <v>0.00741036254507759</v>
+        <v>0.001853510604333959</v>
       </c>
     </row>
     <row r="18">
@@ -983,10 +983,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.003998165881088948</v>
+        <v>-0.00448488744698734</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2380173604303208</v>
+        <v>0.1859580548853792</v>
       </c>
     </row>
     <row r="19">
@@ -996,10 +996,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.00374012676097628</v>
+        <v>-0.004440201472366825</v>
       </c>
       <c r="C19" t="n">
-        <v>0.409797856047991</v>
+        <v>0.3247142109022324</v>
       </c>
     </row>
     <row r="20">
@@ -1009,10 +1009,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.880910474945685</v>
+        <v>0.9293517220229099</v>
       </c>
       <c r="C20" t="n">
-        <v>0.006036909395667103</v>
+        <v>0.003894332785405585</v>
       </c>
     </row>
     <row r="21">
@@ -1022,10 +1022,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.5747438730856173</v>
+        <v>-0.7673736170753117</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1839382579349658</v>
+        <v>0.07702782745297777</v>
       </c>
     </row>
     <row r="22">
@@ -1035,10 +1035,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.0001066716908412386</v>
+        <v>-0.0001150142543297132</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0008094688612411048</v>
+        <v>0.0003563742126592242</v>
       </c>
     </row>
   </sheetData>
@@ -1084,10 +1084,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.7146005409655815</v>
+        <v>-1.165141793393155</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3034763204276708</v>
+        <v>0.09301994060398462</v>
       </c>
     </row>
     <row r="3">
@@ -1097,10 +1097,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3119228879808477</v>
+        <v>0.3492465322040373</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02055633064632503</v>
+        <v>0.009840773530963132</v>
       </c>
     </row>
     <row r="4">
@@ -1110,10 +1110,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.6350307882469097</v>
+        <v>-0.5378499889221672</v>
       </c>
       <c r="C4" t="n">
-        <v>6.570882404371028e-09</v>
+        <v>8.252929188554059e-07</v>
       </c>
     </row>
     <row r="5">
@@ -1123,10 +1123,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.4119282552339464</v>
+        <v>-0.3220374759809628</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0002565427354935914</v>
+        <v>0.00416452632712287</v>
       </c>
     </row>
     <row r="6">
@@ -1136,10 +1136,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.3420474767524287</v>
+        <v>-0.2827164421713993</v>
       </c>
       <c r="C6" t="n">
-        <v>0.006461124468580102</v>
+        <v>0.02483983745520236</v>
       </c>
     </row>
     <row r="7">
@@ -1149,10 +1149,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.01111411982946544</v>
+        <v>-0.01271425879028987</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8282134255227314</v>
+        <v>0.8040318184909276</v>
       </c>
     </row>
     <row r="8">
@@ -1162,10 +1162,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0006257546307370388</v>
+        <v>0.0006492768932000194</v>
       </c>
       <c r="C8" t="n">
-        <v>1.105537208202585e-96</v>
+        <v>8.563566008642366e-102</v>
       </c>
     </row>
     <row r="9">
@@ -1175,10 +1175,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01560111436747038</v>
+        <v>0.01517821736332777</v>
       </c>
       <c r="C9" t="n">
-        <v>7.676454703560101e-09</v>
+        <v>2.333125034305376e-08</v>
       </c>
     </row>
     <row r="10">
@@ -1188,10 +1188,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.263870661590737</v>
+        <v>0.2447163362862136</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0001745223113963533</v>
+        <v>0.0005418791273896288</v>
       </c>
     </row>
     <row r="11">
@@ -1201,10 +1201,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2272683837223502</v>
+        <v>0.2521169279153794</v>
       </c>
       <c r="C11" t="n">
-        <v>0.04013665579699736</v>
+        <v>0.02220001711052234</v>
       </c>
     </row>
     <row r="12">
@@ -1214,10 +1214,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2473256650650235</v>
+        <v>0.2647387476071088</v>
       </c>
       <c r="C12" t="n">
-        <v>0.08066404806760974</v>
+        <v>0.06324594195134844</v>
       </c>
     </row>
     <row r="13">
@@ -1227,10 +1227,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-3.323518338391146e-05</v>
+        <v>-3.788167488579107e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>1.608888758465928e-06</v>
+        <v>4.209181820425245e-08</v>
       </c>
     </row>
     <row r="14">
@@ -1240,10 +1240,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.46783663491942e-08</v>
+        <v>3.286089397757453e-08</v>
       </c>
       <c r="C14" t="n">
-        <v>0.02450759435612061</v>
+        <v>0.03366989109425853</v>
       </c>
     </row>
     <row r="15">
@@ -1253,10 +1253,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0008863364624438341</v>
+        <v>0.001121113389103036</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9612534875742315</v>
+        <v>0.951044007982344</v>
       </c>
     </row>
     <row r="16">
@@ -1266,10 +1266,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.04524476406080017</v>
+        <v>0.04248317223808858</v>
       </c>
       <c r="C16" t="n">
-        <v>0.001200687180407653</v>
+        <v>0.002362283447720007</v>
       </c>
     </row>
     <row r="17">
@@ -1279,10 +1279,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1.487612799553486</v>
+        <v>-1.301930320550109</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0005182493264561364</v>
+        <v>0.002613605649807881</v>
       </c>
     </row>
     <row r="18">
@@ -1292,10 +1292,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.005817899441227507</v>
+        <v>-0.004396721169541163</v>
       </c>
       <c r="C18" t="n">
-        <v>0.08392978180306018</v>
+        <v>0.1935645007376389</v>
       </c>
     </row>
     <row r="19">
@@ -1305,10 +1305,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.00745403465207719</v>
+        <v>-0.004563231465903928</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1012490205302262</v>
+        <v>0.3147524841931695</v>
       </c>
     </row>
     <row r="20">
@@ -1318,10 +1318,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9120707724796834</v>
+        <v>1.007401257388193</v>
       </c>
       <c r="C20" t="n">
-        <v>0.004548898009614449</v>
+        <v>0.001803836369653044</v>
       </c>
     </row>
     <row r="21">
@@ -1331,10 +1331,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.593755108831277</v>
+        <v>-0.4476741263379032</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1724103016234942</v>
+        <v>0.3032570691849915</v>
       </c>
     </row>
     <row r="22">
@@ -1344,10 +1344,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.0001121603192754021</v>
+        <v>-0.0001130391456483946</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0004620136133167497</v>
+        <v>0.0004683105392802034</v>
       </c>
     </row>
   </sheetData>
@@ -1393,10 +1393,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.016838901973186</v>
+        <v>-0.4049110675367144</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1456586121750174</v>
+        <v>0.5645874197494054</v>
       </c>
     </row>
     <row r="3">
@@ -1406,10 +1406,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2528296925827286</v>
+        <v>0.2959120104246292</v>
       </c>
       <c r="C3" t="n">
-        <v>0.06433934496884278</v>
+        <v>0.03094700441339151</v>
       </c>
     </row>
     <row r="4">
@@ -1419,10 +1419,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.6390397380687257</v>
+        <v>-0.6205986684570881</v>
       </c>
       <c r="C4" t="n">
-        <v>6.497152330180895e-09</v>
+        <v>1.717505613428373e-08</v>
       </c>
     </row>
     <row r="5">
@@ -1432,10 +1432,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.3754092193601416</v>
+        <v>-0.4122161429322324</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0009201752751494939</v>
+        <v>0.0002731690021124</v>
       </c>
     </row>
     <row r="6">
@@ -1445,10 +1445,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.4065105516905715</v>
+        <v>-0.3395232468759588</v>
       </c>
       <c r="C6" t="n">
-        <v>0.001483793617992498</v>
+        <v>0.008017592724154803</v>
       </c>
     </row>
     <row r="7">
@@ -1458,10 +1458,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.01706503121591546</v>
+        <v>0.01186426350520856</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7450674366959936</v>
+        <v>0.8226229904102942</v>
       </c>
     </row>
     <row r="8">
@@ -1471,10 +1471,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0006148073500139115</v>
+        <v>0.0006279693608734915</v>
       </c>
       <c r="C8" t="n">
-        <v>8.548496787967184e-93</v>
+        <v>1.582595092133502e-95</v>
       </c>
     </row>
     <row r="9">
@@ -1484,10 +1484,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01348513513421669</v>
+        <v>0.01563638110009296</v>
       </c>
       <c r="C9" t="n">
-        <v>7.053234496203582e-07</v>
+        <v>1.152765328530972e-08</v>
       </c>
     </row>
     <row r="10">
@@ -1497,10 +1497,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.2785612211506786</v>
+        <v>0.2250317411969689</v>
       </c>
       <c r="C10" t="n">
-        <v>8.735657432806455e-05</v>
+        <v>0.001492117791655137</v>
       </c>
     </row>
     <row r="11">
@@ -1510,10 +1510,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2964057340003901</v>
+        <v>0.306929210762408</v>
       </c>
       <c r="C11" t="n">
-        <v>0.008169830963415912</v>
+        <v>0.006425944133458096</v>
       </c>
     </row>
     <row r="12">
@@ -1523,10 +1523,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.3426297604394377</v>
+        <v>0.2886001361567679</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01684301676489398</v>
+        <v>0.04489799229468414</v>
       </c>
     </row>
     <row r="13">
@@ -1536,10 +1536,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-3.655004866691129e-05</v>
+        <v>-3.625524905822472e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>1.549735519338661e-07</v>
+        <v>1.848445233554634e-07</v>
       </c>
     </row>
     <row r="14">
@@ -1549,10 +1549,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.412279330571411e-08</v>
+        <v>3.345330986559835e-08</v>
       </c>
       <c r="C14" t="n">
-        <v>0.02953002277166501</v>
+        <v>0.03202398724581049</v>
       </c>
     </row>
     <row r="15">
@@ -1562,10 +1562,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.01413212713172709</v>
+        <v>0.003287006582640898</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4438505832719764</v>
+        <v>0.8585616900112681</v>
       </c>
     </row>
     <row r="16">
@@ -1575,10 +1575,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.04700397096166156</v>
+        <v>0.04217559416166696</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0009177591888437127</v>
+        <v>0.002828405201438063</v>
       </c>
     </row>
     <row r="17">
@@ -1588,10 +1588,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1.472105464448263</v>
+        <v>-1.601096027739121</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0006633244624250368</v>
+        <v>0.0002120450510894789</v>
       </c>
     </row>
     <row r="18">
@@ -1601,10 +1601,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.005310372837711278</v>
+        <v>-0.008066548322684554</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1179409293775782</v>
+        <v>0.0180058093069694</v>
       </c>
     </row>
     <row r="19">
@@ -1614,10 +1614,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.005305371895242749</v>
+        <v>-0.01006121952808625</v>
       </c>
       <c r="C19" t="n">
-        <v>0.243605093416037</v>
+        <v>0.02811378258030872</v>
       </c>
     </row>
     <row r="20">
@@ -1627,10 +1627,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.003589942726835</v>
+        <v>1.062354552385422</v>
       </c>
       <c r="C20" t="n">
-        <v>0.001980481153595131</v>
+        <v>0.001135034242430083</v>
       </c>
     </row>
     <row r="21">
@@ -1640,10 +1640,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.523599916898342</v>
+        <v>-0.5447170275788417</v>
       </c>
       <c r="C21" t="n">
-        <v>0.234116762222169</v>
+        <v>0.2144458606255506</v>
       </c>
     </row>
     <row r="22">
@@ -1653,10 +1653,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.0001047988749630385</v>
+        <v>-0.0001044123968250454</v>
       </c>
       <c r="C22" t="n">
-        <v>0.001274591863472074</v>
+        <v>0.001284957155594752</v>
       </c>
     </row>
   </sheetData>
@@ -1702,10 +1702,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.092695558058594</v>
+        <v>-1.490992797377807</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1148935495437143</v>
+        <v>0.03400567263070798</v>
       </c>
     </row>
     <row r="3">
@@ -1715,10 +1715,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2427698246100898</v>
+        <v>0.1700707239590441</v>
       </c>
       <c r="C3" t="n">
-        <v>0.07348033493310893</v>
+        <v>0.2162083075275257</v>
       </c>
     </row>
     <row r="4">
@@ -1728,10 +1728,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.5638103004789156</v>
+        <v>-0.5694849391052751</v>
       </c>
       <c r="C4" t="n">
-        <v>2.876899880699148e-07</v>
+        <v>3.064558199698523e-07</v>
       </c>
     </row>
     <row r="5">
@@ -1741,10 +1741,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.3608801773212625</v>
+        <v>-0.3192133759329114</v>
       </c>
       <c r="C5" t="n">
-        <v>0.001469067019716046</v>
+        <v>0.00533947783709169</v>
       </c>
     </row>
     <row r="6">
@@ -1754,10 +1754,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.330019236641916</v>
+        <v>-0.4126792613623682</v>
       </c>
       <c r="C6" t="n">
-        <v>0.008494185928403748</v>
+        <v>0.00111470696211617</v>
       </c>
     </row>
     <row r="7">
@@ -1767,10 +1767,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.02549625260324269</v>
+        <v>0.0558930672405854</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6260686595066853</v>
+        <v>0.2967259882306594</v>
       </c>
     </row>
     <row r="8">
@@ -1780,10 +1780,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0006420751851146418</v>
+        <v>0.0006219756628559146</v>
       </c>
       <c r="C8" t="n">
-        <v>2.932473604584031e-100</v>
+        <v>2.201779523527033e-94</v>
       </c>
     </row>
     <row r="9">
@@ -1793,10 +1793,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01414760045966375</v>
+        <v>0.01628006187087354</v>
       </c>
       <c r="C9" t="n">
-        <v>1.830716501922642e-07</v>
+        <v>3.036720846956724e-09</v>
       </c>
     </row>
     <row r="10">
@@ -1806,10 +1806,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.2761113158407391</v>
+        <v>0.3151939607631364</v>
       </c>
       <c r="C10" t="n">
-        <v>9.026131151057528e-05</v>
+        <v>9.867058724972397e-06</v>
       </c>
     </row>
     <row r="11">
@@ -1819,10 +1819,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2104029323765035</v>
+        <v>0.3686122799189715</v>
       </c>
       <c r="C11" t="n">
-        <v>0.05627217365796565</v>
+        <v>0.001041290875925503</v>
       </c>
     </row>
     <row r="12">
@@ -1832,10 +1832,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2768031448816845</v>
+        <v>0.3258377230797882</v>
       </c>
       <c r="C12" t="n">
-        <v>0.05066361248366834</v>
+        <v>0.02317730316081242</v>
       </c>
     </row>
     <row r="13">
@@ -1845,10 +1845,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-3.205721677383335e-05</v>
+        <v>-3.671213795960953e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>3.623711378183766e-06</v>
+        <v>1.420237331280496e-07</v>
       </c>
     </row>
     <row r="14">
@@ -1858,10 +1858,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.422076302063568e-08</v>
+        <v>3.632100428373266e-08</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1217004323034156</v>
+        <v>0.0199734559650513</v>
       </c>
     </row>
     <row r="15">
@@ -1871,10 +1871,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.00608382256648382</v>
+        <v>0.01056054519097151</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7398968892960212</v>
+        <v>0.5679232600052038</v>
       </c>
     </row>
     <row r="16">
@@ -1884,10 +1884,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.05393359607612671</v>
+        <v>0.05123042070223707</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0001314500043764475</v>
+        <v>0.0003085630270784403</v>
       </c>
     </row>
     <row r="17">
@@ -1897,10 +1897,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1.356778398746651</v>
+        <v>-1.321189679095608</v>
       </c>
       <c r="C17" t="n">
-        <v>0.001509812834624709</v>
+        <v>0.002329594431515984</v>
       </c>
     </row>
     <row r="18">
@@ -1910,10 +1910,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.006571639011536444</v>
+        <v>-0.00428970311501049</v>
       </c>
       <c r="C18" t="n">
-        <v>0.05241086385835666</v>
+        <v>0.210252600056319</v>
       </c>
     </row>
     <row r="19">
@@ -1923,10 +1923,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.005355494587504714</v>
+        <v>-0.003872023589352357</v>
       </c>
       <c r="C19" t="n">
-        <v>0.2357366923305737</v>
+        <v>0.3963425095973464</v>
       </c>
     </row>
     <row r="20">
@@ -1936,10 +1936,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9323062464034224</v>
+        <v>0.9086679852411484</v>
       </c>
       <c r="C20" t="n">
-        <v>0.003983500014152646</v>
+        <v>0.005095164398698494</v>
       </c>
     </row>
     <row r="21">
@@ -1949,10 +1949,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.4356734560148308</v>
+        <v>-0.7408734460043838</v>
       </c>
       <c r="C21" t="n">
-        <v>0.3197033682773026</v>
+        <v>0.0897959967138547</v>
       </c>
     </row>
     <row r="22">
@@ -1962,10 +1962,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-8.676359952350332e-05</v>
+        <v>-0.0001123171333007407</v>
       </c>
       <c r="C22" t="n">
-        <v>0.007006792479591926</v>
+        <v>0.0005537010471462589</v>
       </c>
     </row>
   </sheetData>
@@ -2011,10 +2011,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.317962929456882</v>
+        <v>-1.131892158714187</v>
       </c>
       <c r="C2" t="n">
-        <v>0.06066156539846635</v>
+        <v>0.1045783411543268</v>
       </c>
     </row>
     <row r="3">
@@ -2024,10 +2024,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2966126880765451</v>
+        <v>0.2761836006466151</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02961835776549017</v>
+        <v>0.04424368826926688</v>
       </c>
     </row>
     <row r="4">
@@ -2037,10 +2037,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.6176366578752788</v>
+        <v>-0.6331826949232171</v>
       </c>
       <c r="C4" t="n">
-        <v>2.122862839699413e-08</v>
+        <v>8.94432674954735e-09</v>
       </c>
     </row>
     <row r="5">
@@ -2050,10 +2050,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.4094046227547405</v>
+        <v>-0.4132575547396766</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0002915240619693586</v>
+        <v>0.0002541369780402904</v>
       </c>
     </row>
     <row r="6">
@@ -2063,10 +2063,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.4142772742924329</v>
+        <v>-0.3935519243112753</v>
       </c>
       <c r="C6" t="n">
-        <v>0.001149853933375294</v>
+        <v>0.002033757931220499</v>
       </c>
     </row>
     <row r="7">
@@ -2076,10 +2076,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.009803362857681897</v>
+        <v>0.02004545241835816</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8499674111998832</v>
+        <v>0.7049408644379536</v>
       </c>
     </row>
     <row r="8">
@@ -2089,10 +2089,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0006401009143052219</v>
+        <v>0.0006174262962733916</v>
       </c>
       <c r="C8" t="n">
-        <v>2.027823654531057e-98</v>
+        <v>6.387284929344335e-94</v>
       </c>
     </row>
     <row r="9">
@@ -2102,10 +2102,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01694812800744006</v>
+        <v>0.01423986025779176</v>
       </c>
       <c r="C9" t="n">
-        <v>6.709986510483576e-10</v>
+        <v>1.720198052586168e-07</v>
       </c>
     </row>
     <row r="10">
@@ -2115,10 +2115,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.2702516873231429</v>
+        <v>0.3036133372527611</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0001383647605209335</v>
+        <v>1.91682281238198e-05</v>
       </c>
     </row>
     <row r="11">
@@ -2128,10 +2128,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2952215084193663</v>
+        <v>0.2195849728489392</v>
       </c>
       <c r="C11" t="n">
-        <v>0.008534425955981837</v>
+        <v>0.04746480613811514</v>
       </c>
     </row>
     <row r="12">
@@ -2141,10 +2141,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2383129857621307</v>
+        <v>0.2900076559959395</v>
       </c>
       <c r="C12" t="n">
-        <v>0.09711695413149113</v>
+        <v>0.04213552243425649</v>
       </c>
     </row>
     <row r="13">
@@ -2154,10 +2154,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-3.180251312184728e-05</v>
+        <v>-3.184533577511716e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>4.793096979218564e-06</v>
+        <v>4.182461575350309e-06</v>
       </c>
     </row>
     <row r="14">
@@ -2167,10 +2167,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.260268802084574e-08</v>
+        <v>3.375708925310486e-08</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0377445321586005</v>
+        <v>0.03104550090274312</v>
       </c>
     </row>
     <row r="15">
@@ -2180,10 +2180,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.006619598177415057</v>
+        <v>0.01273550232513492</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7199999739787384</v>
+        <v>0.4896113327599777</v>
       </c>
     </row>
     <row r="16">
@@ -2193,10 +2193,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.0440514526644871</v>
+        <v>0.04641604874007888</v>
       </c>
       <c r="C16" t="n">
-        <v>0.001834255982727789</v>
+        <v>0.001024570805095157</v>
       </c>
     </row>
     <row r="17">
@@ -2206,10 +2206,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1.745240001255311</v>
+        <v>-1.419048975547728</v>
       </c>
       <c r="C17" t="n">
-        <v>6.132358693907305e-05</v>
+        <v>0.0009891504197718571</v>
       </c>
     </row>
     <row r="18">
@@ -2219,10 +2219,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.005634843804189359</v>
+        <v>-0.006220355366760275</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1014935047916375</v>
+        <v>0.06608516486506866</v>
       </c>
     </row>
     <row r="19">
@@ -2232,10 +2232,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.00368099817108638</v>
+        <v>-0.004533241810164022</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4195843612405581</v>
+        <v>0.3169273160272381</v>
       </c>
     </row>
     <row r="20">
@@ -2245,10 +2245,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.035301289241424</v>
+        <v>1.098473786981199</v>
       </c>
       <c r="C20" t="n">
-        <v>0.001339107171154915</v>
+        <v>0.0006323593761911829</v>
       </c>
     </row>
     <row r="21">
@@ -2258,10 +2258,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.4088960173030639</v>
+        <v>-0.4569732057534716</v>
       </c>
       <c r="C21" t="n">
-        <v>0.3533623713816775</v>
+        <v>0.2969190770350038</v>
       </c>
     </row>
     <row r="22">
@@ -2271,10 +2271,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.0001048828071326728</v>
+        <v>-0.0001094755722958853</v>
       </c>
       <c r="C22" t="n">
-        <v>0.00123295226166475</v>
+        <v>0.0006959061369992397</v>
       </c>
     </row>
   </sheetData>
@@ -2320,10 +2320,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.8557529893843814</v>
+        <v>-1.405155242631352</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2200793620708938</v>
+        <v>0.04435786242891928</v>
       </c>
     </row>
     <row r="3">
@@ -2333,10 +2333,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2971731682921494</v>
+        <v>0.2699707424781644</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02937903112493813</v>
+        <v>0.049358961372164</v>
       </c>
     </row>
     <row r="4">
@@ -2346,10 +2346,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.5612151417627927</v>
+        <v>-0.6133164586828068</v>
       </c>
       <c r="C4" t="n">
-        <v>3.194895881715133e-07</v>
+        <v>2.87507124805795e-08</v>
       </c>
     </row>
     <row r="5">
@@ -2359,10 +2359,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.3584422868496863</v>
+        <v>-0.3965734587542273</v>
       </c>
       <c r="C5" t="n">
-        <v>0.001473526085060728</v>
+        <v>0.0004922738405997583</v>
       </c>
     </row>
     <row r="6">
@@ -2372,10 +2372,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.3492503714640414</v>
+        <v>-0.4407706176848343</v>
       </c>
       <c r="C6" t="n">
-        <v>0.00627072658492335</v>
+        <v>0.0005004620353009304</v>
       </c>
     </row>
     <row r="7">
@@ -2385,10 +2385,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.01627876212995999</v>
+        <v>0.01149224623960246</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7557537322201067</v>
+        <v>0.8282374074717679</v>
       </c>
     </row>
     <row r="8">
@@ -2398,10 +2398,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0006360085977278956</v>
+        <v>0.0006305685374869192</v>
       </c>
       <c r="C8" t="n">
-        <v>2.527151382743321e-98</v>
+        <v>1.516560135184882e-96</v>
       </c>
     </row>
     <row r="9">
@@ -2411,10 +2411,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01567230387175477</v>
+        <v>0.01558441522921437</v>
       </c>
       <c r="C9" t="n">
-        <v>8.594983075739259e-09</v>
+        <v>1.273366054446547e-08</v>
       </c>
     </row>
     <row r="10">
@@ -2424,10 +2424,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.2558934491367857</v>
+        <v>0.2804184553228506</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0002975923600629985</v>
+        <v>8.100801306633239e-05</v>
       </c>
     </row>
     <row r="11">
@@ -2437,10 +2437,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2341682024956261</v>
+        <v>0.1946478464761266</v>
       </c>
       <c r="C11" t="n">
-        <v>0.036906918355808</v>
+        <v>0.08038725864135816</v>
       </c>
     </row>
     <row r="12">
@@ -2450,10 +2450,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2345685470768302</v>
+        <v>0.2109777615447143</v>
       </c>
       <c r="C12" t="n">
-        <v>0.102907576912056</v>
+        <v>0.140812175032567</v>
       </c>
     </row>
     <row r="13">
@@ -2463,10 +2463,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-3.789151821519366e-05</v>
+        <v>-3.46849305463951e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>4.538759477279114e-08</v>
+        <v>5.388029036894496e-07</v>
       </c>
     </row>
     <row r="14">
@@ -2476,10 +2476,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>4.035038101782302e-08</v>
+        <v>3.844814192457725e-08</v>
       </c>
       <c r="C14" t="n">
-        <v>0.009420480372043941</v>
+        <v>0.01354099109858717</v>
       </c>
     </row>
     <row r="15">
@@ -2489,10 +2489,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.00897474468879232</v>
+        <v>0.009948898172345276</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6257588392573219</v>
+        <v>0.5910754903003599</v>
       </c>
     </row>
     <row r="16">
@@ -2502,10 +2502,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.05004254463719977</v>
+        <v>0.05442944551251156</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0003792046470120539</v>
+        <v>0.0001276567278365794</v>
       </c>
     </row>
     <row r="17">
@@ -2515,10 +2515,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1.326069533414026</v>
+        <v>-1.425857349512164</v>
       </c>
       <c r="C17" t="n">
-        <v>0.002123360664456596</v>
+        <v>0.0009805816961918426</v>
       </c>
     </row>
     <row r="18">
@@ -2528,10 +2528,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.005422549544865601</v>
+        <v>-0.004053805520974649</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1110416399484981</v>
+        <v>0.2334940425002525</v>
       </c>
     </row>
     <row r="19">
@@ -2541,10 +2541,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.006324987924810888</v>
+        <v>-0.00282324788288243</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1647125291093104</v>
+        <v>0.5342347922298736</v>
       </c>
     </row>
     <row r="20">
@@ -2554,10 +2554,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.7805240475490691</v>
+        <v>0.9218987642091432</v>
       </c>
       <c r="C20" t="n">
-        <v>0.01608935101807261</v>
+        <v>0.004241950888016348</v>
       </c>
     </row>
     <row r="21">
@@ -2567,10 +2567,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.9893762586739152</v>
+        <v>-0.7102269019428838</v>
       </c>
       <c r="C21" t="n">
-        <v>0.02376133989635941</v>
+        <v>0.1036133202973646</v>
       </c>
     </row>
     <row r="22">
@@ -2580,10 +2580,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.0001156073149646495</v>
+        <v>-0.0001086066262883983</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0003471593883208821</v>
+        <v>0.0008064818948183597</v>
       </c>
     </row>
   </sheetData>
@@ -2629,10 +2629,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.059504079642907</v>
+        <v>-0.7938746813289566</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1325930713284153</v>
+        <v>0.2568435368640147</v>
       </c>
     </row>
     <row r="3">
@@ -2642,10 +2642,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2661776097746637</v>
+        <v>0.2727337848450017</v>
       </c>
       <c r="C3" t="n">
-        <v>0.05090950265698088</v>
+        <v>0.04496456578179165</v>
       </c>
     </row>
     <row r="4">
@@ -2655,10 +2655,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.589529604582691</v>
+        <v>-0.5820205020018028</v>
       </c>
       <c r="C4" t="n">
-        <v>8.33935754967086e-08</v>
+        <v>1.027770242666931e-07</v>
       </c>
     </row>
     <row r="5">
@@ -2668,10 +2668,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.2858656078216129</v>
+        <v>-0.3080946667588206</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01136332581749593</v>
+        <v>0.006278914960517799</v>
       </c>
     </row>
     <row r="6">
@@ -2681,10 +2681,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.3266025590508698</v>
+        <v>-0.3390659574735358</v>
       </c>
       <c r="C6" t="n">
-        <v>0.009816755907189662</v>
+        <v>0.007325046442322548</v>
       </c>
     </row>
     <row r="7">
@@ -2694,10 +2694,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.02849042907517777</v>
+        <v>0.02964108795754511</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5882212955355488</v>
+        <v>0.5666747779159587</v>
       </c>
     </row>
     <row r="8">
@@ -2707,10 +2707,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0006430752528153554</v>
+        <v>0.0006356995711485111</v>
       </c>
       <c r="C8" t="n">
-        <v>5.099817629561579e-100</v>
+        <v>1.66733625437559e-98</v>
       </c>
     </row>
     <row r="9">
@@ -2720,10 +2720,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01454104291489757</v>
+        <v>0.01451008975086186</v>
       </c>
       <c r="C9" t="n">
-        <v>1.067508427463456e-07</v>
+        <v>9.461164422683524e-08</v>
       </c>
     </row>
     <row r="10">
@@ -2733,10 +2733,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.2616559805895383</v>
+        <v>0.2754236827350512</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0002255043940681616</v>
+        <v>0.0001046958699616785</v>
       </c>
     </row>
     <row r="11">
@@ -2746,10 +2746,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2997619732080599</v>
+        <v>0.2199131710255024</v>
       </c>
       <c r="C11" t="n">
-        <v>0.007529629699775988</v>
+        <v>0.04919623689115569</v>
       </c>
     </row>
     <row r="12">
@@ -2759,10 +2759,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.347324419081457</v>
+        <v>0.2818047761796045</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01576254471781856</v>
+        <v>0.04897487135425783</v>
       </c>
     </row>
     <row r="13">
@@ -2772,10 +2772,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-4.04303047996796e-05</v>
+        <v>-3.110840206585309e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>6.134995905541486e-09</v>
+        <v>6.726718975347397e-06</v>
       </c>
     </row>
     <row r="14">
@@ -2785,10 +2785,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>4.258719471558357e-08</v>
+        <v>2.609585677160246e-08</v>
       </c>
       <c r="C14" t="n">
-        <v>0.006319331650425994</v>
+        <v>0.09230287001041163</v>
       </c>
     </row>
     <row r="15">
@@ -2798,10 +2798,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.01436653889928257</v>
+        <v>0.01145644351778383</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4364992792064878</v>
+        <v>0.5334301092668357</v>
       </c>
     </row>
     <row r="16">
@@ -2811,10 +2811,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.03708838589471261</v>
+        <v>0.04710545452353271</v>
       </c>
       <c r="C16" t="n">
-        <v>0.008310219784023626</v>
+        <v>0.0008332407550643057</v>
       </c>
     </row>
     <row r="17">
@@ -2824,10 +2824,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1.057967273888041</v>
+        <v>-1.365955174252053</v>
       </c>
       <c r="C17" t="n">
-        <v>0.01478414010857075</v>
+        <v>0.001462758429368637</v>
       </c>
     </row>
     <row r="18">
@@ -2837,10 +2837,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.005687814600258214</v>
+        <v>-0.006836334879879056</v>
       </c>
       <c r="C18" t="n">
-        <v>0.09438850636967541</v>
+        <v>0.04403299468673533</v>
       </c>
     </row>
     <row r="19">
@@ -2850,10 +2850,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.005265149126492498</v>
+        <v>-0.006867528287833834</v>
       </c>
       <c r="C19" t="n">
-        <v>0.2516316398048396</v>
+        <v>0.1328921734947522</v>
       </c>
     </row>
     <row r="20">
@@ -2863,10 +2863,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.114317470848023</v>
+        <v>0.8199927335732905</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0005588620972963963</v>
+        <v>0.01106020679625837</v>
       </c>
     </row>
     <row r="21">
@@ -2876,10 +2876,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.9196402423132772</v>
+        <v>-0.6005313553531462</v>
       </c>
       <c r="C21" t="n">
-        <v>0.03319967421249019</v>
+        <v>0.1699639712296973</v>
       </c>
     </row>
     <row r="22">
@@ -2889,10 +2889,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.0001300221170126689</v>
+        <v>-0.0001011432961788642</v>
       </c>
       <c r="C22" t="n">
-        <v>5.78366495677322e-05</v>
+        <v>0.001670274382179405</v>
       </c>
     </row>
   </sheetData>
@@ -2938,10 +2938,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.7942025337746842</v>
+        <v>-0.5726577163374164</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2526237691885576</v>
+        <v>0.4124857498861979</v>
       </c>
     </row>
     <row r="3">
@@ -2951,10 +2951,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2654784019578397</v>
+        <v>0.2711352285067917</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04947139131519719</v>
+        <v>0.04448650778513649</v>
       </c>
     </row>
     <row r="4">
@@ -2964,10 +2964,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.5685544621240937</v>
+        <v>-0.6338060642742761</v>
       </c>
       <c r="C4" t="n">
-        <v>2.021780077581239e-07</v>
+        <v>7.024330820402166e-09</v>
       </c>
     </row>
     <row r="5">
@@ -2977,10 +2977,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.3270629690032656</v>
+        <v>-0.4043713107173459</v>
       </c>
       <c r="C5" t="n">
-        <v>0.003742103568949594</v>
+        <v>0.000318475085863112</v>
       </c>
     </row>
     <row r="6">
@@ -2990,10 +2990,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.3842220385459648</v>
+        <v>-0.4002433992075177</v>
       </c>
       <c r="C6" t="n">
-        <v>0.00255659300292461</v>
+        <v>0.001474858442214294</v>
       </c>
     </row>
     <row r="7">
@@ -3003,10 +3003,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.02959724056770737</v>
+        <v>-0.006274978351082917</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5669660796553295</v>
+        <v>0.9030779864693309</v>
       </c>
     </row>
     <row r="8">
@@ -3016,10 +3016,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0006222262533004739</v>
+        <v>0.0006277077809942542</v>
       </c>
       <c r="C8" t="n">
-        <v>9.735407241480423e-96</v>
+        <v>5.722649886999244e-97</v>
       </c>
     </row>
     <row r="9">
@@ -3029,10 +3029,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01536174478631028</v>
+        <v>0.01482091197872209</v>
       </c>
       <c r="C9" t="n">
-        <v>1.613020187015e-08</v>
+        <v>4.784525544232272e-08</v>
       </c>
     </row>
     <row r="10">
@@ -3042,10 +3042,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.2842148016267522</v>
+        <v>0.2768804190977589</v>
       </c>
       <c r="C10" t="n">
-        <v>6.134988917896982e-05</v>
+        <v>8.479748269915954e-05</v>
       </c>
     </row>
     <row r="11">
@@ -3055,10 +3055,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2729279066511832</v>
+        <v>0.276288902899108</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01360847240117913</v>
+        <v>0.01323081807371511</v>
       </c>
     </row>
     <row r="12">
@@ -3068,10 +3068,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2797580637632462</v>
+        <v>0.3227600530903374</v>
       </c>
       <c r="C12" t="n">
-        <v>0.04940948105855424</v>
+        <v>0.02365731064327814</v>
       </c>
     </row>
     <row r="13">
@@ -3081,10 +3081,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-3.415150815453713e-05</v>
+        <v>-3.526204045302896e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>7.77303366546167e-07</v>
+        <v>3.780444663866014e-07</v>
       </c>
     </row>
     <row r="14">
@@ -3094,10 +3094,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.138696759541444e-08</v>
+        <v>3.5729880088089e-08</v>
       </c>
       <c r="C14" t="n">
-        <v>0.04215159616071122</v>
+        <v>0.02285847924413278</v>
       </c>
     </row>
     <row r="15">
@@ -3107,10 +3107,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.006468971546295318</v>
+        <v>0.005000029518246294</v>
       </c>
       <c r="C15" t="n">
-        <v>0.723689347095952</v>
+        <v>0.7858261755718261</v>
       </c>
     </row>
     <row r="16">
@@ -3120,10 +3120,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.04375925152154261</v>
+        <v>0.04284485858999898</v>
       </c>
       <c r="C16" t="n">
-        <v>0.001829756064411181</v>
+        <v>0.002172989802033811</v>
       </c>
     </row>
     <row r="17">
@@ -3133,10 +3133,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1.577436537052376</v>
+        <v>-1.284776091481897</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0002637749049410263</v>
+        <v>0.002960929672124599</v>
       </c>
     </row>
     <row r="18">
@@ -3146,10 +3146,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.006840033503394176</v>
+        <v>-0.007660472558709166</v>
       </c>
       <c r="C18" t="n">
-        <v>0.04315137211812712</v>
+        <v>0.02429208507534007</v>
       </c>
     </row>
     <row r="19">
@@ -3159,10 +3159,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.007203563934302801</v>
+        <v>-0.007486406367653286</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1105619737380203</v>
+        <v>0.101271789158524</v>
       </c>
     </row>
     <row r="20">
@@ -3172,10 +3172,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9674192768525015</v>
+        <v>0.9439675100210464</v>
       </c>
       <c r="C20" t="n">
-        <v>0.002759295402154067</v>
+        <v>0.003525365958990659</v>
       </c>
     </row>
     <row r="21">
@@ -3185,10 +3185,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.6798488030201459</v>
+        <v>-0.6951891140821869</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1224823269159236</v>
+        <v>0.1139622749555191</v>
       </c>
     </row>
     <row r="22">
@@ -3198,10 +3198,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-9.907530209688865e-05</v>
+        <v>-0.0001134147424064521</v>
       </c>
       <c r="C22" t="n">
-        <v>0.002165570753424133</v>
+        <v>0.0004336826379302359</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/carown_LR_new/Paris.xlsx
+++ b/outputs/ML_Results/carown_LR_new/Paris.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,270 +466,205 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.091057835435155</v>
+        <v>-1.738839484855526</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1165342538532138</v>
+        <v>0.01040451432242287</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HHType_simp[T.MultiAdult_Kids]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2380185534574908</v>
+        <v>0.1970851568738185</v>
       </c>
       <c r="C3" t="n">
-        <v>0.08006472478050382</v>
+        <v>1.565000429171215e-14</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female]</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.6051288965357979</v>
+        <v>0.0006733232300011248</v>
       </c>
       <c r="C4" t="n">
-        <v>3.909525920220448e-08</v>
+        <v>4.714439473101073e-122</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.3272687088156638</v>
+        <v>0.01496223973910616</v>
       </c>
       <c r="C5" t="n">
-        <v>0.003805009918507816</v>
+        <v>1.326741474481604e-08</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Parent]</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.34593461167706</v>
+        <v>0.2737586684827072</v>
       </c>
       <c r="C6" t="n">
-        <v>0.006824654167022617</v>
+        <v>9.446367829788918e-05</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0254758018616819</v>
+        <v>0.267702233519497</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6248217864197969</v>
+        <v>0.01527948746263645</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0006193119004142719</v>
+        <v>0.2658460051728164</v>
       </c>
       <c r="C8" t="n">
-        <v>2.336801007287265e-94</v>
+        <v>0.05780352376416274</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01560443590015928</v>
+        <v>-2.984776703244408e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>9.153859255679805e-09</v>
+        <v>7.411513516184085e-08</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.2872708747171723</v>
+        <v>0.01535517726363994</v>
       </c>
       <c r="C10" t="n">
-        <v>4.730674812151071e-05</v>
+        <v>0.3887750175983941</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2608469320018023</v>
+        <v>0.04309885085941368</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01859782354126708</v>
+        <v>0.001853837524156757</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2942950522364945</v>
+        <v>-1.638579153150954</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0389114161667671</v>
+        <v>5.879640088130341e-05</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-3.815682238427897e-05</v>
+        <v>-0.005750276876466791</v>
       </c>
       <c r="C13" t="n">
-        <v>3.072837877437143e-08</v>
+        <v>0.0849920718052961</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.482375533704187e-08</v>
+        <v>-0.004924973425271246</v>
       </c>
       <c r="C14" t="n">
-        <v>0.02372238328714097</v>
+        <v>0.2750787979781768</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.02361106670871618</v>
+        <v>0.9108839886532792</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1951294939796817</v>
+        <v>0.00398207430909458</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.04088091788768929</v>
+        <v>-0.2939436667285409</v>
       </c>
       <c r="C16" t="n">
-        <v>0.003481254498021092</v>
+        <v>0.465840587200916</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>transit_accessibility</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1.434497791443122</v>
+        <v>-5.589371427553729e-05</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0008345243653968848</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>IntersecDensity</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-0.005055472600412131</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.1351085928062693</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>street_length</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-0.005249322228888131</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.2474031534973029</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>LU_UrbFab</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>1.003092449900771</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.001813748077867677</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>LU_Comm</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>-0.7585342385590612</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.08067584597065579</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>transit_accessibility</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>-0.0001051331765325473</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.0009503181410009372</v>
+        <v>0.008476704912192587</v>
       </c>
     </row>
   </sheetData>
@@ -743,7 +678,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -775,270 +710,205 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.136088252543162</v>
+        <v>-1.767935636035134</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1005393758915084</v>
+        <v>0.009054679029676337</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HHType_simp[T.MultiAdult_Kids]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2492120075724903</v>
+        <v>0.1889811396795652</v>
       </c>
       <c r="C3" t="n">
-        <v>0.06319821468169619</v>
+        <v>1.396869672960137e-13</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female]</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.6021028130958883</v>
+        <v>0.0006863947543612297</v>
       </c>
       <c r="C4" t="n">
-        <v>3.694163056732953e-08</v>
+        <v>2.511982977770148e-125</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.3773552091932247</v>
+        <v>0.01410840503920844</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0007667248151616028</v>
+        <v>8.588328831050546e-08</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Parent]</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.3506610002558312</v>
+        <v>0.2493307335914553</v>
       </c>
       <c r="C6" t="n">
-        <v>0.005360787368924739</v>
+        <v>0.0003652938816643661</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.01060414709372568</v>
+        <v>0.281512655028154</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8355180353377952</v>
+        <v>0.01092127603568157</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.000631436455205822</v>
+        <v>0.2758536584395728</v>
       </c>
       <c r="C8" t="n">
-        <v>2.289823385424004e-97</v>
+        <v>0.04973699205510153</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0146961352992925</v>
+        <v>-2.708150600340747e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>5.724074574534267e-08</v>
+        <v>1.319248837512471e-06</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.2595627328613814</v>
+        <v>-0.006549070883276127</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0002294136205586609</v>
+        <v>0.7139003747870003</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2761099430655474</v>
+        <v>0.0492821992910243</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01292681474418307</v>
+        <v>0.0003881427856055035</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2983707473330645</v>
+        <v>-1.609775955721039</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0365439442015681</v>
+        <v>8.558309449075028e-05</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-3.724295085999103e-05</v>
+        <v>-0.0055597150466987</v>
       </c>
       <c r="C13" t="n">
-        <v>8.421529715723469e-08</v>
+        <v>0.0967771804898916</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>4.068252488483164e-08</v>
+        <v>-0.00434080262550917</v>
       </c>
       <c r="C14" t="n">
-        <v>0.009022096375436958</v>
+        <v>0.3332078976081611</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0007806200466490547</v>
+        <v>0.8197626337120681</v>
       </c>
       <c r="C15" t="n">
-        <v>0.965902018804958</v>
+        <v>0.009626778421880177</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.04738163222669815</v>
+        <v>-0.2373804133216695</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0007380687304294772</v>
+        <v>0.5555376201608927</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>transit_accessibility</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1.341339258217231</v>
+        <v>-5.742021040852302e-05</v>
       </c>
       <c r="C17" t="n">
-        <v>0.001853510604333959</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>IntersecDensity</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-0.00448488744698734</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.1859580548853792</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>street_length</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-0.004440201472366825</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.3247142109022324</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>LU_UrbFab</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>0.9293517220229099</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.003894332785405585</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>LU_Comm</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>-0.7673736170753117</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.07702782745297777</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>transit_accessibility</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>-0.0001150142543297132</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.0003563742126592242</v>
+        <v>0.007882122237922432</v>
       </c>
     </row>
   </sheetData>
@@ -1052,7 +922,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1084,270 +954,205 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.165141793393155</v>
+        <v>-1.784851945467833</v>
       </c>
       <c r="C2" t="n">
-        <v>0.09301994060398462</v>
+        <v>0.00847306076886464</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HHType_simp[T.MultiAdult_Kids]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3492465322040373</v>
+        <v>0.1758912531278749</v>
       </c>
       <c r="C3" t="n">
-        <v>0.009840773530963132</v>
+        <v>5.155417249075955e-12</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female]</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.5378499889221672</v>
+        <v>0.0006984664629057965</v>
       </c>
       <c r="C4" t="n">
-        <v>8.252929188554059e-07</v>
+        <v>8.322635747986006e-129</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.3220374759809628</v>
+        <v>0.01431768663632436</v>
       </c>
       <c r="C5" t="n">
-        <v>0.00416452632712287</v>
+        <v>6.117516583186343e-08</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Parent]</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.2827164421713993</v>
+        <v>0.2344112276169168</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02483983745520236</v>
+        <v>0.0008518532151430926</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.01271425879028987</v>
+        <v>0.2629384714650275</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8040318184909276</v>
+        <v>0.01644331877587005</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0006492768932000194</v>
+        <v>0.2535094845183688</v>
       </c>
       <c r="C8" t="n">
-        <v>8.563566008642366e-102</v>
+        <v>0.07053369015457321</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01517821736332777</v>
+        <v>-3.034396516304765e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>2.333125034305376e-08</v>
+        <v>6.138465791572755e-08</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.2447163362862136</v>
+        <v>-0.004813244139741691</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0005418791273896288</v>
+        <v>0.7875705887308675</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2521169279153794</v>
+        <v>0.04392490874540758</v>
       </c>
       <c r="C11" t="n">
-        <v>0.02220001711052234</v>
+        <v>0.001492969043930131</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2647387476071088</v>
+        <v>-1.516340751993617</v>
       </c>
       <c r="C12" t="n">
-        <v>0.06324594195134844</v>
+        <v>0.000224050585672218</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-3.788167488579107e-05</v>
+        <v>-0.005046048194091719</v>
       </c>
       <c r="C13" t="n">
-        <v>4.209181820425245e-08</v>
+        <v>0.1307819687559028</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.286089397757453e-08</v>
+        <v>-0.004280435917075285</v>
       </c>
       <c r="C14" t="n">
-        <v>0.03366989109425853</v>
+        <v>0.3431011268414156</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.001121113389103036</v>
+        <v>0.9310880588075655</v>
       </c>
       <c r="C15" t="n">
-        <v>0.951044007982344</v>
+        <v>0.003393221370509978</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.04248317223808858</v>
+        <v>-0.01869967450639736</v>
       </c>
       <c r="C16" t="n">
-        <v>0.002362283447720007</v>
+        <v>0.9630231847767645</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>transit_accessibility</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1.301930320550109</v>
+        <v>-6.550563402902727e-05</v>
       </c>
       <c r="C17" t="n">
-        <v>0.002613605649807881</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>IntersecDensity</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-0.004396721169541163</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.1935645007376389</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>street_length</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-0.004563231465903928</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.3147524841931695</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>LU_UrbFab</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>1.007401257388193</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.001803836369653044</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>LU_Comm</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>-0.4476741263379032</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.3032570691849915</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>transit_accessibility</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>-0.0001130391456483946</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.0004683105392802034</v>
+        <v>0.002471844440299148</v>
       </c>
     </row>
   </sheetData>
@@ -1361,7 +1166,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1393,270 +1198,205 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.4049110675367144</v>
+        <v>-1.152174560351996</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5645874197494054</v>
+        <v>0.09311797807519302</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HHType_simp[T.MultiAdult_Kids]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2959120104246292</v>
+        <v>0.2133718648036856</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03094700441339151</v>
+        <v>3.336284493511529e-16</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female]</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.6205986684570881</v>
+        <v>0.0006835253677610556</v>
       </c>
       <c r="C4" t="n">
-        <v>1.717505613428373e-08</v>
+        <v>7.921115208614358e-123</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.4122161429322324</v>
+        <v>0.01500425486263529</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0002731690021124</v>
+        <v>1.751749643310655e-08</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Parent]</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.3395232468759588</v>
+        <v>0.213532655709009</v>
       </c>
       <c r="C6" t="n">
-        <v>0.008017592724154803</v>
+        <v>0.002418757595669282</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.01186426350520856</v>
+        <v>0.2992588159232021</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8226229904102942</v>
+        <v>0.007610284265757502</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0006279693608734915</v>
+        <v>0.2540539504125757</v>
       </c>
       <c r="C8" t="n">
-        <v>1.582595092133502e-95</v>
+        <v>0.0728872588252185</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01563638110009296</v>
+        <v>-2.809976789469613e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>1.152765328530972e-08</v>
+        <v>5.831308042449053e-07</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.2250317411969689</v>
+        <v>-0.002050693523626822</v>
       </c>
       <c r="C10" t="n">
-        <v>0.001492117791655137</v>
+        <v>0.9095241592029832</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.306929210762408</v>
+        <v>0.04397789659164138</v>
       </c>
       <c r="C11" t="n">
-        <v>0.006425944133458096</v>
+        <v>0.001650850664839841</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2886001361567679</v>
+        <v>-1.815168247185866</v>
       </c>
       <c r="C12" t="n">
-        <v>0.04489799229468414</v>
+        <v>1.029349930197764e-05</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-3.625524905822472e-05</v>
+        <v>-0.008689862775548864</v>
       </c>
       <c r="C13" t="n">
-        <v>1.848445233554634e-07</v>
+        <v>0.00993629762795371</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.345330986559835e-08</v>
+        <v>-0.009457504901069157</v>
       </c>
       <c r="C14" t="n">
-        <v>0.03202398724581049</v>
+        <v>0.03787081158740667</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.003287006582640898</v>
+        <v>0.971686970956753</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8585616900112681</v>
+        <v>0.00246506022793693</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.04217559416166696</v>
+        <v>-0.1109571119384109</v>
       </c>
       <c r="C16" t="n">
-        <v>0.002828405201438063</v>
+        <v>0.7855102172655034</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>transit_accessibility</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1.601096027739121</v>
+        <v>-5.666508261864451e-05</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0002120450510894789</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>IntersecDensity</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-0.008066548322684554</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.0180058093069694</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>street_length</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-0.01006121952808625</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.02811378258030872</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>LU_UrbFab</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>1.062354552385422</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.001135034242430083</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>LU_Comm</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>-0.5447170275788417</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.2144458606255506</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>transit_accessibility</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>-0.0001044123968250454</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.001284957155594752</v>
+        <v>0.00937351877384728</v>
       </c>
     </row>
   </sheetData>
@@ -1670,7 +1410,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1702,270 +1442,205 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.490992797377807</v>
+        <v>-2.133253719322515</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03400567263070798</v>
+        <v>0.001927172894855822</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HHType_simp[T.MultiAdult_Kids]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1700707239590441</v>
+        <v>0.2057332614151036</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2162083075275257</v>
+        <v>3.105186049743663e-15</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female]</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.5694849391052751</v>
+        <v>0.0006749848052238336</v>
       </c>
       <c r="C4" t="n">
-        <v>3.064558199698523e-07</v>
+        <v>4.016891633679791e-121</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.3192133759329114</v>
+        <v>0.01602760107339516</v>
       </c>
       <c r="C5" t="n">
-        <v>0.00533947783709169</v>
+        <v>1.833607534993507e-09</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Parent]</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.4126792613623682</v>
+        <v>0.303113622461358</v>
       </c>
       <c r="C6" t="n">
-        <v>0.00111470696211617</v>
+        <v>1.871216056468126e-05</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0558930672405854</v>
+        <v>0.3751416669004891</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2967259882306594</v>
+        <v>0.0007956310324511642</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0006219756628559146</v>
+        <v>0.3065796345611316</v>
       </c>
       <c r="C8" t="n">
-        <v>2.201779523527033e-94</v>
+        <v>0.02969920161104713</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01628006187087354</v>
+        <v>-2.798612956830835e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>3.036720846956724e-09</v>
+        <v>6.972661649205632e-07</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.3151939607631364</v>
+        <v>0.003270585439395939</v>
       </c>
       <c r="C10" t="n">
-        <v>9.867058724972397e-06</v>
+        <v>0.8563824865479522</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.3686122799189715</v>
+        <v>0.05322792172827677</v>
       </c>
       <c r="C11" t="n">
-        <v>0.001041290875925503</v>
+        <v>0.0001507131493138718</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.3258377230797882</v>
+        <v>-1.546170431582218</v>
       </c>
       <c r="C12" t="n">
-        <v>0.02317730316081242</v>
+        <v>0.0001782635662331495</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-3.671213795960953e-05</v>
+        <v>-0.005021060976943967</v>
       </c>
       <c r="C13" t="n">
-        <v>1.420237331280496e-07</v>
+        <v>0.1381201810138823</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.632100428373266e-08</v>
+        <v>-0.003388558361520975</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0199734559650513</v>
+        <v>0.4557426187490046</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.01056054519097151</v>
+        <v>0.8082800397001065</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5679232600052038</v>
+        <v>0.01126967153675887</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.05123042070223707</v>
+        <v>-0.2726287756927997</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0003085630270784403</v>
+        <v>0.5012783839541173</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>transit_accessibility</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1.321189679095608</v>
+        <v>-6.06434460216612e-05</v>
       </c>
       <c r="C17" t="n">
-        <v>0.002329594431515984</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>IntersecDensity</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-0.00428970311501049</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.210252600056319</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>street_length</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-0.003872023589352357</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.3963425095973464</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>LU_UrbFab</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>0.9086679852411484</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.005095164398698494</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>LU_Comm</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>-0.7408734460043838</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.0897959967138547</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>transit_accessibility</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>-0.0001123171333007407</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.0005537010471462589</v>
+        <v>0.005581738749714285</v>
       </c>
     </row>
   </sheetData>
@@ -1979,7 +1654,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2011,270 +1686,205 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.131892158714187</v>
+        <v>-1.864062344368713</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1045783411543268</v>
+        <v>0.006221563638908793</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HHType_simp[T.MultiAdult_Kids]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2761836006466151</v>
+        <v>0.2167007065989495</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04424368826926688</v>
+        <v>1.29811386485399e-16</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female]</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.6331826949232171</v>
+        <v>0.0006740303708564699</v>
       </c>
       <c r="C4" t="n">
-        <v>8.94432674954735e-09</v>
+        <v>1.846191895359103e-121</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.4132575547396766</v>
+        <v>0.01384453805148228</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0002541369780402904</v>
+        <v>1.668594141206839e-07</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Parent]</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.3935519243112753</v>
+        <v>0.2918017098529322</v>
       </c>
       <c r="C6" t="n">
-        <v>0.002033757931220499</v>
+        <v>3.503829060102179e-05</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.02004545241835816</v>
+        <v>0.224764947832694</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7049408644379536</v>
+        <v>0.04145396401375159</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0006174262962733916</v>
+        <v>0.2676586689313523</v>
       </c>
       <c r="C8" t="n">
-        <v>6.387284929344335e-94</v>
+        <v>0.05647929852475082</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01423986025779176</v>
+        <v>-2.37126675663654e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>1.720198052586168e-07</v>
+        <v>2.150942494272298e-05</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.3036133372527611</v>
+        <v>0.006145829158774674</v>
       </c>
       <c r="C10" t="n">
-        <v>1.91682281238198e-05</v>
+        <v>0.7328094291780456</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2195849728489392</v>
+        <v>0.04824761396337055</v>
       </c>
       <c r="C11" t="n">
-        <v>0.04746480613811514</v>
+        <v>0.0005564258208240174</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2900076559959395</v>
+        <v>-1.600899717566922</v>
       </c>
       <c r="C12" t="n">
-        <v>0.04213552243425649</v>
+        <v>9.229166371978753e-05</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-3.184533577511716e-05</v>
+        <v>-0.006901126652006376</v>
       </c>
       <c r="C13" t="n">
-        <v>4.182461575350309e-06</v>
+        <v>0.0388907803799233</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.375708925310486e-08</v>
+        <v>-0.00426298953176312</v>
       </c>
       <c r="C14" t="n">
-        <v>0.03104550090274312</v>
+        <v>0.3439417795483354</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.01273550232513492</v>
+        <v>1.001496265226892</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4896113327599777</v>
+        <v>0.001530901056007485</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.04641604874007888</v>
+        <v>-0.004068517660138044</v>
       </c>
       <c r="C16" t="n">
-        <v>0.001024570805095157</v>
+        <v>0.9919828102947583</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>transit_accessibility</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1.419048975547728</v>
+        <v>-6.291361524364154e-05</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0009891504197718571</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>IntersecDensity</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-0.006220355366760275</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.06608516486506866</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>street_length</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-0.004533241810164022</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.3169273160272381</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>LU_UrbFab</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>1.098473786981199</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.0006323593761911829</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>LU_Comm</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>-0.4569732057534716</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.2969190770350038</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>transit_accessibility</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>-0.0001094755722958853</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.0006959061369992397</v>
+        <v>0.003423499052030849</v>
       </c>
     </row>
   </sheetData>
@@ -2288,7 +1898,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2320,270 +1930,205 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.405155242631352</v>
+        <v>-2.119286767159727</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04435786242891928</v>
+        <v>0.001922100555147464</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HHType_simp[T.MultiAdult_Kids]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2699707424781644</v>
+        <v>0.2017385900330471</v>
       </c>
       <c r="C3" t="n">
-        <v>0.049358961372164</v>
+        <v>9.811061314253511e-15</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female]</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.6133164586828068</v>
+        <v>0.0006868166425471469</v>
       </c>
       <c r="C4" t="n">
-        <v>2.87507124805795e-08</v>
+        <v>7.097084965395563e-124</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.3965734587542273</v>
+        <v>0.01504151643533662</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0004922738405997583</v>
+        <v>1.605360128053801e-08</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Parent]</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.4407706176848343</v>
+        <v>0.2651415964593277</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0005004620353009304</v>
+        <v>0.0001736871430706262</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.01149224623960246</v>
+        <v>0.1971966291483022</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8282374074717679</v>
+        <v>0.07534423804124038</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0006305685374869192</v>
+        <v>0.1935295463490792</v>
       </c>
       <c r="C8" t="n">
-        <v>1.516560135184882e-96</v>
+        <v>0.1699682818330214</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01558441522921437</v>
+        <v>-2.523674947341295e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>1.273366054446547e-08</v>
+        <v>6.410211465695785e-06</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.2804184553228506</v>
+        <v>0.002154729792768374</v>
       </c>
       <c r="C10" t="n">
-        <v>8.100801306633239e-05</v>
+        <v>0.9052500720499449</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1946478464761266</v>
+        <v>0.05627065723971456</v>
       </c>
       <c r="C11" t="n">
-        <v>0.08038725864135816</v>
+        <v>6.159147051468501e-05</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2109777615447143</v>
+        <v>-1.655704609551795</v>
       </c>
       <c r="C12" t="n">
-        <v>0.140812175032567</v>
+        <v>5.538767906912002e-05</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-3.46849305463951e-05</v>
+        <v>-0.00481825216289351</v>
       </c>
       <c r="C13" t="n">
-        <v>5.388029036894496e-07</v>
+        <v>0.1513635416249244</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.844814192457725e-08</v>
+        <v>-0.002303269489850037</v>
       </c>
       <c r="C14" t="n">
-        <v>0.01354099109858717</v>
+        <v>0.6097755725622849</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.009948898172345276</v>
+        <v>0.8075995711725924</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5910754903003599</v>
+        <v>0.01082492747683463</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.05442944551251156</v>
+        <v>-0.2383108704007371</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0001276567278365794</v>
+        <v>0.5567423483015221</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>transit_accessibility</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1.425857349512164</v>
+        <v>-5.510942553079248e-05</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0009805816961918426</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>IntersecDensity</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-0.004053805520974649</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.2334940425002525</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>street_length</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-0.00282324788288243</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.5342347922298736</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>LU_UrbFab</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>0.9218987642091432</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.004241950888016348</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>LU_Comm</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>-0.7102269019428838</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.1036133202973646</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>transit_accessibility</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>-0.0001086066262883983</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.0008064818948183597</v>
+        <v>0.01118085382050033</v>
       </c>
     </row>
   </sheetData>
@@ -2597,7 +2142,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2629,270 +2174,205 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.7938746813289566</v>
+        <v>-1.439772424795597</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2568435368640147</v>
+        <v>0.03527182855000719</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HHType_simp[T.MultiAdult_Kids]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2727337848450017</v>
+        <v>0.2039450441835768</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04496456578179165</v>
+        <v>2.635544306612513e-15</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female]</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.5820205020018028</v>
+        <v>0.0006872366602648436</v>
       </c>
       <c r="C4" t="n">
-        <v>1.027770242666931e-07</v>
+        <v>6.331502102233056e-125</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.3080946667588206</v>
+        <v>0.01378172301875742</v>
       </c>
       <c r="C5" t="n">
-        <v>0.006278914960517799</v>
+        <v>1.786680980446541e-07</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Parent]</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.3390659574735358</v>
+        <v>0.2630222801735604</v>
       </c>
       <c r="C6" t="n">
-        <v>0.007325046442322548</v>
+        <v>0.0001909040086915867</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.02964108795754511</v>
+        <v>0.2280205530846643</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5666747779159587</v>
+        <v>0.04051308637910989</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0006356995711485111</v>
+        <v>0.2637527344894842</v>
       </c>
       <c r="C8" t="n">
-        <v>1.66733625437559e-98</v>
+        <v>0.06137385256985805</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01451008975086186</v>
+        <v>-2.515215051471691e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>9.461164422683524e-08</v>
+        <v>6.490621754435919e-06</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.2754236827350512</v>
+        <v>0.005868684844864531</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0001046958699616785</v>
+        <v>0.7441871019030395</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2199131710255024</v>
+        <v>0.04849305972194325</v>
       </c>
       <c r="C11" t="n">
-        <v>0.04919623689115569</v>
+        <v>0.00050794896708991</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2818047761796045</v>
+        <v>-1.50360955997635</v>
       </c>
       <c r="C12" t="n">
-        <v>0.04897487135425783</v>
+        <v>0.0002264894286935889</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-3.110840206585309e-05</v>
+        <v>-0.007355012025060088</v>
       </c>
       <c r="C13" t="n">
-        <v>6.726718975347397e-06</v>
+        <v>0.02821628529882793</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.609585677160246e-08</v>
+        <v>-0.006490978979232387</v>
       </c>
       <c r="C14" t="n">
-        <v>0.09230287001041163</v>
+        <v>0.1531375974981257</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.01145644351778383</v>
+        <v>0.7620028339538154</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5334301092668357</v>
+        <v>0.01646536640957692</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.04710545452353271</v>
+        <v>-0.2355448050181312</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0008332407550643057</v>
+        <v>0.5611259306992464</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>transit_accessibility</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1.365955174252053</v>
+        <v>-6.520759754072279e-05</v>
       </c>
       <c r="C17" t="n">
-        <v>0.001462758429368637</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>IntersecDensity</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-0.006836334879879056</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.04403299468673533</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>street_length</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-0.006867528287833834</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.1328921734947522</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>LU_UrbFab</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>0.8199927335732905</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.01106020679625837</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>LU_Comm</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>-0.6005313553531462</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.1699639712296973</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>transit_accessibility</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>-0.0001011432961788642</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.001670274382179405</v>
+        <v>0.002570388560319755</v>
       </c>
     </row>
   </sheetData>
@@ -2906,7 +2386,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2938,270 +2418,205 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.5726577163374164</v>
+        <v>-1.313717147534105</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4124857498861979</v>
+        <v>0.05427430473687012</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HHType_simp[T.MultiAdult_Kids]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2711352285067917</v>
+        <v>0.1852531635954602</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04448650778513649</v>
+        <v>5.513637044880349e-13</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female]</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.6338060642742761</v>
+        <v>0.0006845497019588787</v>
       </c>
       <c r="C4" t="n">
-        <v>7.024330820402166e-09</v>
+        <v>4.494054837353728e-125</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.4043713107173459</v>
+        <v>0.01438643080119737</v>
       </c>
       <c r="C5" t="n">
-        <v>0.000318475085863112</v>
+        <v>4.693030436137759e-08</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Parent]</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.4002433992075177</v>
+        <v>0.2701200912202676</v>
       </c>
       <c r="C6" t="n">
-        <v>0.001474858442214294</v>
+        <v>0.0001120387662990427</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.006274978351082917</v>
+        <v>0.2774940068347787</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9030779864693309</v>
+        <v>0.01232033225165774</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0006277077809942542</v>
+        <v>0.2948878616211127</v>
       </c>
       <c r="C8" t="n">
-        <v>5.722649886999244e-97</v>
+        <v>0.03562351962884881</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01482091197872209</v>
+        <v>-2.683221861350774e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>4.784525544232272e-08</v>
+        <v>1.636763072832666e-06</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.2768804190977589</v>
+        <v>-0.001874333404683405</v>
       </c>
       <c r="C10" t="n">
-        <v>8.479748269915954e-05</v>
+        <v>0.9170382836516581</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.276288902899108</v>
+        <v>0.04408936682619413</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01323081807371511</v>
+        <v>0.001430971397378956</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.3227600530903374</v>
+        <v>-1.47379055036327</v>
       </c>
       <c r="C12" t="n">
-        <v>0.02365731064327814</v>
+        <v>0.000337651976695664</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-3.526204045302896e-05</v>
+        <v>-0.008401099660820435</v>
       </c>
       <c r="C13" t="n">
-        <v>3.780444663866014e-07</v>
+        <v>0.01225943758380185</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.5729880088089e-08</v>
+        <v>-0.006943992415983552</v>
       </c>
       <c r="C14" t="n">
-        <v>0.02285847924413278</v>
+        <v>0.1263574740019939</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.005000029518246294</v>
+        <v>0.8630719360655159</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7858261755718261</v>
+        <v>0.006739478676108636</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.04284485858999898</v>
+        <v>-0.2216015058790742</v>
       </c>
       <c r="C16" t="n">
-        <v>0.002172989802033811</v>
+        <v>0.5861007131981681</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>transit_accessibility</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1.284776091481897</v>
+        <v>-6.443449587395466e-05</v>
       </c>
       <c r="C17" t="n">
-        <v>0.002960929672124599</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>IntersecDensity</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-0.007660472558709166</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.02429208507534007</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>street_length</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-0.007486406367653286</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.101271789158524</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>LU_UrbFab</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>0.9439675100210464</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.003525365958990659</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>LU_Comm</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>-0.6951891140821869</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.1139622749555191</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>transit_accessibility</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>-0.0001134147424064521</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.0004336826379302359</v>
+        <v>0.002731911104178532</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/carown_LR_new/Paris.xlsx
+++ b/outputs/ML_Results/carown_LR_new/Paris.xlsx
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.738839484855526</v>
+        <v>-1.807235146116006</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01040451432242287</v>
+        <v>0.007683235857518482</v>
       </c>
     </row>
     <row r="3">
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1970851568738185</v>
+        <v>0.1968500033277177</v>
       </c>
       <c r="C3" t="n">
-        <v>1.565000429171215e-14</v>
+        <v>1.695088239295355e-14</v>
       </c>
     </row>
     <row r="4">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0006733232300011248</v>
+        <v>0.0006738631219415991</v>
       </c>
       <c r="C4" t="n">
-        <v>4.714439473101073e-122</v>
+        <v>3.559821782016539e-122</v>
       </c>
     </row>
     <row r="5">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01496223973910616</v>
+        <v>0.01497708311079795</v>
       </c>
       <c r="C5" t="n">
-        <v>1.326741474481604e-08</v>
+        <v>1.290046867942063e-08</v>
       </c>
     </row>
     <row r="6">
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.2737586684827072</v>
+        <v>0.2731001824529847</v>
       </c>
       <c r="C6" t="n">
-        <v>9.446367829788918e-05</v>
+        <v>9.834402445130935e-05</v>
       </c>
     </row>
     <row r="7">
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.267702233519497</v>
+        <v>0.2657405086889278</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01527948746263645</v>
+        <v>0.01609002570916871</v>
       </c>
     </row>
     <row r="8">
@@ -544,10 +544,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.2658460051728164</v>
+        <v>0.2642310418368399</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05780352376416274</v>
+        <v>0.05941413529009804</v>
       </c>
     </row>
     <row r="9">
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2.984776703244408e-05</v>
+        <v>-0.002937356709630721</v>
       </c>
       <c r="C9" t="n">
-        <v>7.411513516184085e-08</v>
+        <v>1.271805128685117e-07</v>
       </c>
     </row>
     <row r="10">
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.01535517726363994</v>
+        <v>0.01690780999579582</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3887750175983941</v>
+        <v>0.3427524541361686</v>
       </c>
     </row>
     <row r="11">
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.04309885085941368</v>
+        <v>0.04204508926593759</v>
       </c>
       <c r="C11" t="n">
-        <v>0.001853837524156757</v>
+        <v>0.002262255889432068</v>
       </c>
     </row>
     <row r="12">
@@ -596,10 +596,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1.638579153150954</v>
+        <v>-0.01549678062623893</v>
       </c>
       <c r="C12" t="n">
-        <v>5.879640088130341e-05</v>
+        <v>0.0001527526415891242</v>
       </c>
     </row>
     <row r="13">
@@ -609,10 +609,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.005750276876466791</v>
+        <v>-0.005446299218959136</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0849920718052961</v>
+        <v>0.1029028188266981</v>
       </c>
     </row>
     <row r="14">
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.004924973425271246</v>
+        <v>-0.004553393257244194</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2750787979781768</v>
+        <v>0.3126772606180237</v>
       </c>
     </row>
     <row r="15">
@@ -635,10 +635,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9108839886532792</v>
+        <v>0.008821966531264368</v>
       </c>
       <c r="C15" t="n">
-        <v>0.00398207430909458</v>
+        <v>0.005167003797660479</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.2939436667285409</v>
+        <v>-0.0029706653131674</v>
       </c>
       <c r="C16" t="n">
-        <v>0.465840587200916</v>
+        <v>0.4603702038210916</v>
       </c>
     </row>
     <row r="17">
@@ -661,10 +661,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-5.589371427553729e-05</v>
+        <v>-0.005501573227769378</v>
       </c>
       <c r="C17" t="n">
-        <v>0.008476704912192587</v>
+        <v>0.002457498490965181</v>
       </c>
     </row>
   </sheetData>
@@ -710,10 +710,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.767935636035134</v>
+        <v>-1.839338414769653</v>
       </c>
       <c r="C2" t="n">
-        <v>0.009054679029676337</v>
+        <v>0.006567771224166499</v>
       </c>
     </row>
     <row r="3">
@@ -723,10 +723,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1889811396795652</v>
+        <v>0.1890419417334091</v>
       </c>
       <c r="C3" t="n">
-        <v>1.396869672960137e-13</v>
+        <v>1.383310844336251e-13</v>
       </c>
     </row>
     <row r="4">
@@ -736,10 +736,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0006863947543612297</v>
+        <v>0.0006867433694823394</v>
       </c>
       <c r="C4" t="n">
-        <v>2.511982977770148e-125</v>
+        <v>2.108648548561472e-125</v>
       </c>
     </row>
     <row r="5">
@@ -749,10 +749,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01410840503920844</v>
+        <v>0.01411817092996126</v>
       </c>
       <c r="C5" t="n">
-        <v>8.588328831050546e-08</v>
+        <v>8.431338236666443e-08</v>
       </c>
     </row>
     <row r="6">
@@ -762,10 +762,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.2493307335914553</v>
+        <v>0.2480832980082184</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0003652938816643661</v>
+        <v>0.0003910769471035444</v>
       </c>
     </row>
     <row r="7">
@@ -775,10 +775,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.281512655028154</v>
+        <v>0.2793082331217315</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01092127603568157</v>
+        <v>0.01158024524356284</v>
       </c>
     </row>
     <row r="8">
@@ -788,10 +788,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.2758536584395728</v>
+        <v>0.2737804505363299</v>
       </c>
       <c r="C8" t="n">
-        <v>0.04973699205510153</v>
+        <v>0.0515161267493472</v>
       </c>
     </row>
     <row r="9">
@@ -801,10 +801,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2.708150600340747e-05</v>
+        <v>-0.002662315456867681</v>
       </c>
       <c r="C9" t="n">
-        <v>1.319248837512471e-06</v>
+        <v>2.107118359026105e-06</v>
       </c>
     </row>
     <row r="10">
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.006549070883276127</v>
+        <v>-0.004935275704482731</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7139003747870003</v>
+        <v>0.7824275595831897</v>
       </c>
     </row>
     <row r="11">
@@ -827,10 +827,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.0492821992910243</v>
+        <v>0.04848903440330848</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0003881427856055035</v>
+        <v>0.0004525358309148998</v>
       </c>
     </row>
     <row r="12">
@@ -840,10 +840,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1.609775955721039</v>
+        <v>-0.01531203801156352</v>
       </c>
       <c r="C12" t="n">
-        <v>8.558309449075028e-05</v>
+        <v>0.0002023311322674641</v>
       </c>
     </row>
     <row r="13">
@@ -853,10 +853,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.0055597150466987</v>
+        <v>-0.005300326710246322</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0967771804898916</v>
+        <v>0.1134531630188945</v>
       </c>
     </row>
     <row r="14">
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.00434080262550917</v>
+        <v>-0.003963202368795341</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3332078976081611</v>
+        <v>0.3767933553279452</v>
       </c>
     </row>
     <row r="15">
@@ -879,10 +879,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.8197626337120681</v>
+        <v>0.007916016994558564</v>
       </c>
       <c r="C15" t="n">
-        <v>0.009626778421880177</v>
+        <v>0.01219765587642831</v>
       </c>
     </row>
     <row r="16">
@@ -892,10 +892,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.2373804133216695</v>
+        <v>-0.002390363073989825</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5555376201608927</v>
+        <v>0.5521830563557139</v>
       </c>
     </row>
     <row r="17">
@@ -905,10 +905,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-5.742021040852302e-05</v>
+        <v>-0.005527193218277479</v>
       </c>
       <c r="C17" t="n">
-        <v>0.007882122237922432</v>
+        <v>0.002897132729070107</v>
       </c>
     </row>
   </sheetData>
@@ -954,10 +954,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.784851945467833</v>
+        <v>-1.864541482281624</v>
       </c>
       <c r="C2" t="n">
-        <v>0.00847306076886464</v>
+        <v>0.005911942637470394</v>
       </c>
     </row>
     <row r="3">
@@ -967,10 +967,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1758912531278749</v>
+        <v>0.1759358135286998</v>
       </c>
       <c r="C3" t="n">
-        <v>5.155417249075955e-12</v>
+        <v>5.132516307075967e-12</v>
       </c>
     </row>
     <row r="4">
@@ -980,10 +980,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0006984664629057965</v>
+        <v>0.0006985492813663715</v>
       </c>
       <c r="C4" t="n">
-        <v>8.322635747986006e-129</v>
+        <v>7.776444112354569e-129</v>
       </c>
     </row>
     <row r="5">
@@ -993,10 +993,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01431768663632436</v>
+        <v>0.0143326708394263</v>
       </c>
       <c r="C5" t="n">
-        <v>6.117516583186343e-08</v>
+        <v>5.952799073275394e-08</v>
       </c>
     </row>
     <row r="6">
@@ -1006,10 +1006,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.2344112276169168</v>
+        <v>0.2329671674913793</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0008518532151430926</v>
+        <v>0.000917676627782942</v>
       </c>
     </row>
     <row r="7">
@@ -1019,10 +1019,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2629384714650275</v>
+        <v>0.2605650556699559</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01644331877587005</v>
+        <v>0.01749397078255738</v>
       </c>
     </row>
     <row r="8">
@@ -1032,10 +1032,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.2535094845183688</v>
+        <v>0.2505607241196837</v>
       </c>
       <c r="C8" t="n">
-        <v>0.07053369015457321</v>
+        <v>0.07397415848111993</v>
       </c>
     </row>
     <row r="9">
@@ -1045,10 +1045,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3.034396516304765e-05</v>
+        <v>-0.002991599160406114</v>
       </c>
       <c r="C9" t="n">
-        <v>6.138465791572755e-08</v>
+        <v>1.005488483876897e-07</v>
       </c>
     </row>
     <row r="10">
@@ -1058,10 +1058,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.004813244139741691</v>
+        <v>-0.003209049009567872</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7875705887308675</v>
+        <v>0.8574777531898321</v>
       </c>
     </row>
     <row r="11">
@@ -1071,10 +1071,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.04392490874540758</v>
+        <v>0.0433786677141096</v>
       </c>
       <c r="C11" t="n">
-        <v>0.001492969043930131</v>
+        <v>0.001618302361497457</v>
       </c>
     </row>
     <row r="12">
@@ -1084,10 +1084,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1.516340751993617</v>
+        <v>-0.01447115887868809</v>
       </c>
       <c r="C12" t="n">
-        <v>0.000224050585672218</v>
+        <v>0.0004508310705366768</v>
       </c>
     </row>
     <row r="13">
@@ -1097,10 +1097,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.005046048194091719</v>
+        <v>-0.004794688586038565</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1307819687559028</v>
+        <v>0.151111805893345</v>
       </c>
     </row>
     <row r="14">
@@ -1110,10 +1110,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.004280435917075285</v>
+        <v>-0.00385802863853509</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3431011268414156</v>
+        <v>0.3926512372411657</v>
       </c>
     </row>
     <row r="15">
@@ -1123,10 +1123,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9310880588075655</v>
+        <v>0.008977316380916704</v>
       </c>
       <c r="C15" t="n">
-        <v>0.003393221370509978</v>
+        <v>0.004617939850089748</v>
       </c>
     </row>
     <row r="16">
@@ -1136,10 +1136,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.01869967450639736</v>
+        <v>-0.0002575970533080515</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9630231847767645</v>
+        <v>0.9489884997155932</v>
       </c>
     </row>
     <row r="17">
@@ -1149,10 +1149,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-6.550563402902727e-05</v>
+        <v>-0.006140395467233325</v>
       </c>
       <c r="C17" t="n">
-        <v>0.002471844440299148</v>
+        <v>0.0009022935326531458</v>
       </c>
     </row>
   </sheetData>
@@ -1198,10 +1198,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.152174560351996</v>
+        <v>-1.226069615898445</v>
       </c>
       <c r="C2" t="n">
-        <v>0.09311797807519302</v>
+        <v>0.07362473165529153</v>
       </c>
     </row>
     <row r="3">
@@ -1211,10 +1211,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2133718648036856</v>
+        <v>0.2133116059578002</v>
       </c>
       <c r="C3" t="n">
-        <v>3.336284493511529e-16</v>
+        <v>3.427616401390361e-16</v>
       </c>
     </row>
     <row r="4">
@@ -1224,10 +1224,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0006835253677610556</v>
+        <v>0.0006840340003435395</v>
       </c>
       <c r="C4" t="n">
-        <v>7.921115208614358e-123</v>
+        <v>6.307134069818764e-123</v>
       </c>
     </row>
     <row r="5">
@@ -1237,10 +1237,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01500425486263529</v>
+        <v>0.01502388688592859</v>
       </c>
       <c r="C5" t="n">
-        <v>1.751749643310655e-08</v>
+        <v>1.685983159860549e-08</v>
       </c>
     </row>
     <row r="6">
@@ -1250,10 +1250,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.213532655709009</v>
+        <v>0.2123263018035976</v>
       </c>
       <c r="C6" t="n">
-        <v>0.002418757595669282</v>
+        <v>0.002560399664755264</v>
       </c>
     </row>
     <row r="7">
@@ -1263,10 +1263,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2992588159232021</v>
+        <v>0.2960539282693581</v>
       </c>
       <c r="C7" t="n">
-        <v>0.007610284265757502</v>
+        <v>0.008308976137983285</v>
       </c>
     </row>
     <row r="8">
@@ -1276,10 +1276,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.2540539504125757</v>
+        <v>0.251397447774512</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0728872588252185</v>
+        <v>0.07600407600391434</v>
       </c>
     </row>
     <row r="9">
@@ -1289,10 +1289,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2.809976789469613e-05</v>
+        <v>-0.002767437224607556</v>
       </c>
       <c r="C9" t="n">
-        <v>5.831308042449053e-07</v>
+        <v>9.114435231202106e-07</v>
       </c>
     </row>
     <row r="10">
@@ -1302,10 +1302,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.002050693523626822</v>
+        <v>-0.0004544278722771645</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9095241592029832</v>
+        <v>0.979918453288191</v>
       </c>
     </row>
     <row r="11">
@@ -1315,10 +1315,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.04397789659164138</v>
+        <v>0.04307589696954042</v>
       </c>
       <c r="C11" t="n">
-        <v>0.001650850664839841</v>
+        <v>0.001932743053394619</v>
       </c>
     </row>
     <row r="12">
@@ -1328,10 +1328,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1.815168247185866</v>
+        <v>-0.0172810996993977</v>
       </c>
       <c r="C12" t="n">
-        <v>1.029349930197764e-05</v>
+        <v>2.98108044534196e-05</v>
       </c>
     </row>
     <row r="13">
@@ -1341,10 +1341,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.008689862775548864</v>
+        <v>-0.008386172021706278</v>
       </c>
       <c r="C13" t="n">
-        <v>0.00993629762795371</v>
+        <v>0.01289042178339197</v>
       </c>
     </row>
     <row r="14">
@@ -1354,10 +1354,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.009457504901069157</v>
+        <v>-0.009064291510636011</v>
       </c>
       <c r="C14" t="n">
-        <v>0.03787081158740667</v>
+        <v>0.04646655265422164</v>
       </c>
     </row>
     <row r="15">
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.971686970956753</v>
+        <v>0.0094406613585336</v>
       </c>
       <c r="C15" t="n">
-        <v>0.00246506022793693</v>
+        <v>0.00319224376585905</v>
       </c>
     </row>
     <row r="16">
@@ -1380,10 +1380,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.1109571119384109</v>
+        <v>-0.001091380965359675</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7855102172655034</v>
+        <v>0.788626821127192</v>
       </c>
     </row>
     <row r="17">
@@ -1393,10 +1393,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-5.666508261864451e-05</v>
+        <v>-0.005511942375348765</v>
       </c>
       <c r="C17" t="n">
-        <v>0.00937351877384728</v>
+        <v>0.003147823887476681</v>
       </c>
     </row>
   </sheetData>
@@ -1442,10 +1442,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2.133253719322515</v>
+        <v>-2.210098082612919</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001927172894855822</v>
+        <v>0.001301388813787974</v>
       </c>
     </row>
     <row r="3">
@@ -1455,10 +1455,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2057332614151036</v>
+        <v>0.2057817978660294</v>
       </c>
       <c r="C3" t="n">
-        <v>3.105186049743663e-15</v>
+        <v>3.080814118480931e-15</v>
       </c>
     </row>
     <row r="4">
@@ -1468,10 +1468,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0006749848052238336</v>
+        <v>0.0006756897716078608</v>
       </c>
       <c r="C4" t="n">
-        <v>4.016891633679791e-121</v>
+        <v>3.095716378309818e-121</v>
       </c>
     </row>
     <row r="5">
@@ -1481,10 +1481,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01602760107339516</v>
+        <v>0.01603578141127755</v>
       </c>
       <c r="C5" t="n">
-        <v>1.833607534993507e-09</v>
+        <v>1.805055890189857e-09</v>
       </c>
     </row>
     <row r="6">
@@ -1494,10 +1494,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.303113622461358</v>
+        <v>0.3012675985821018</v>
       </c>
       <c r="C6" t="n">
-        <v>1.871216056468126e-05</v>
+        <v>2.104541558548203e-05</v>
       </c>
     </row>
     <row r="7">
@@ -1507,10 +1507,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.3751416669004891</v>
+        <v>0.3723248721522859</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0007956310324511642</v>
+        <v>0.0008755468971761084</v>
       </c>
     </row>
     <row r="8">
@@ -1520,10 +1520,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.3065796345611316</v>
+        <v>0.3038533472549281</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02969920161104713</v>
+        <v>0.03123353199655356</v>
       </c>
     </row>
     <row r="9">
@@ -1533,10 +1533,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2.798612956830835e-05</v>
+        <v>-0.00274835412382174</v>
       </c>
       <c r="C9" t="n">
-        <v>6.972661649205632e-07</v>
+        <v>1.168704498606766e-06</v>
       </c>
     </row>
     <row r="10">
@@ -1546,10 +1546,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.003270585439395939</v>
+        <v>0.004781642082155311</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8563824865479522</v>
+        <v>0.7913577434527563</v>
       </c>
     </row>
     <row r="11">
@@ -1559,10 +1559,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.05322792172827677</v>
+        <v>0.05227338586188618</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0001507131493138718</v>
+        <v>0.0001825926349631982</v>
       </c>
     </row>
     <row r="12">
@@ -1572,10 +1572,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1.546170431582218</v>
+        <v>-0.01455097976679702</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0001782635662331495</v>
+        <v>0.0004472200455220665</v>
       </c>
     </row>
     <row r="13">
@@ -1585,10 +1585,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.005021060976943967</v>
+        <v>-0.004721580465846021</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1381201810138823</v>
+        <v>0.1631969354888992</v>
       </c>
     </row>
     <row r="14">
@@ -1598,10 +1598,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.003388558361520975</v>
+        <v>-0.002959083560379292</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4557426187490046</v>
+        <v>0.5147138539503207</v>
       </c>
     </row>
     <row r="15">
@@ -1611,10 +1611,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.8082800397001065</v>
+        <v>0.007777285623329006</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01126967153675887</v>
+        <v>0.01453830876850217</v>
       </c>
     </row>
     <row r="16">
@@ -1624,10 +1624,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.2726287756927997</v>
+        <v>-0.002744517500410945</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5012783839541173</v>
+        <v>0.4977780508757769</v>
       </c>
     </row>
     <row r="17">
@@ -1637,10 +1637,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-6.06434460216612e-05</v>
+        <v>-0.005906140215185966</v>
       </c>
       <c r="C17" t="n">
-        <v>0.005581738749714285</v>
+        <v>0.001606684227798334</v>
       </c>
     </row>
   </sheetData>
@@ -1686,10 +1686,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.864062344368713</v>
+        <v>-1.931513830063224</v>
       </c>
       <c r="C2" t="n">
-        <v>0.006221563638908793</v>
+        <v>0.004534353229341204</v>
       </c>
     </row>
     <row r="3">
@@ -1699,10 +1699,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2167007065989495</v>
+        <v>0.2165465480246209</v>
       </c>
       <c r="C3" t="n">
-        <v>1.29811386485399e-16</v>
+        <v>1.373267029960888e-16</v>
       </c>
     </row>
     <row r="4">
@@ -1712,10 +1712,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0006740303708564699</v>
+        <v>0.0006743924461672597</v>
       </c>
       <c r="C4" t="n">
-        <v>1.846191895359103e-121</v>
+        <v>1.507522120288641e-121</v>
       </c>
     </row>
     <row r="5">
@@ -1725,10 +1725,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01384453805148228</v>
+        <v>0.01383826016138782</v>
       </c>
       <c r="C5" t="n">
-        <v>1.668594141206839e-07</v>
+        <v>1.692719469427294e-07</v>
       </c>
     </row>
     <row r="6">
@@ -1738,10 +1738,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.2918017098529322</v>
+        <v>0.2903459404476235</v>
       </c>
       <c r="C6" t="n">
-        <v>3.503829060102179e-05</v>
+        <v>3.839110437267293e-05</v>
       </c>
     </row>
     <row r="7">
@@ -1751,10 +1751,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.224764947832694</v>
+        <v>0.2218287473778399</v>
       </c>
       <c r="C7" t="n">
-        <v>0.04145396401375159</v>
+        <v>0.04427164958290061</v>
       </c>
     </row>
     <row r="8">
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.2676586689313523</v>
+        <v>0.2654292483695908</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05647929852475082</v>
+        <v>0.05863496662349469</v>
       </c>
     </row>
     <row r="9">
@@ -1777,10 +1777,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2.37126675663654e-05</v>
+        <v>-0.002322076830455899</v>
       </c>
       <c r="C9" t="n">
-        <v>2.150942494272298e-05</v>
+        <v>3.327849086783771e-05</v>
       </c>
     </row>
     <row r="10">
@@ -1790,10 +1790,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.006145829158774674</v>
+        <v>0.007690706593756268</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7328094291780456</v>
+        <v>0.6692623757367325</v>
       </c>
     </row>
     <row r="11">
@@ -1803,10 +1803,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.04824761396337055</v>
+        <v>0.04714034207922005</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0005564258208240174</v>
+        <v>0.0007039945630459445</v>
       </c>
     </row>
     <row r="12">
@@ -1816,10 +1816,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1.600899717566922</v>
+        <v>-0.01514643762838335</v>
       </c>
       <c r="C12" t="n">
-        <v>9.229166371978753e-05</v>
+        <v>0.0002273375401468913</v>
       </c>
     </row>
     <row r="13">
@@ -1829,10 +1829,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.006901126652006376</v>
+        <v>-0.006633026809074036</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0388907803799233</v>
+        <v>0.04703003284568961</v>
       </c>
     </row>
     <row r="14">
@@ -1842,10 +1842,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.00426298953176312</v>
+        <v>-0.003884514158183004</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3439417795483354</v>
+        <v>0.3881328857084253</v>
       </c>
     </row>
     <row r="15">
@@ -1855,10 +1855,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.001496265226892</v>
+        <v>0.009703739988583428</v>
       </c>
       <c r="C15" t="n">
-        <v>0.001530901056007485</v>
+        <v>0.002081052726692704</v>
       </c>
     </row>
     <row r="16">
@@ -1868,10 +1868,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.004068517660138044</v>
+        <v>-7.88283010063214e-05</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9919828102947583</v>
+        <v>0.9844407138741078</v>
       </c>
     </row>
     <row r="17">
@@ -1881,10 +1881,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-6.291361524364154e-05</v>
+        <v>-0.006081961875911529</v>
       </c>
       <c r="C17" t="n">
-        <v>0.003423499052030849</v>
+        <v>0.0009365283981807493</v>
       </c>
     </row>
   </sheetData>
@@ -1930,10 +1930,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2.119286767159727</v>
+        <v>-2.190905628340965</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001922100555147464</v>
+        <v>0.001320005645162015</v>
       </c>
     </row>
     <row r="3">
@@ -1943,10 +1943,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2017385900330471</v>
+        <v>0.2016740601823098</v>
       </c>
       <c r="C3" t="n">
-        <v>9.811061314253511e-15</v>
+        <v>9.96976490714112e-15</v>
       </c>
     </row>
     <row r="4">
@@ -1956,10 +1956,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0006868166425471469</v>
+        <v>0.0006878929023663745</v>
       </c>
       <c r="C4" t="n">
-        <v>7.097084965395563e-124</v>
+        <v>4.237078397963004e-124</v>
       </c>
     </row>
     <row r="5">
@@ -1969,10 +1969,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01504151643533662</v>
+        <v>0.01507959175505912</v>
       </c>
       <c r="C5" t="n">
-        <v>1.605360128053801e-08</v>
+        <v>1.492314182625563e-08</v>
       </c>
     </row>
     <row r="6">
@@ -1982,10 +1982,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.2651415964593277</v>
+        <v>0.26352034238165</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0001736871430706262</v>
+        <v>0.0001906394945674208</v>
       </c>
     </row>
     <row r="7">
@@ -1995,10 +1995,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1971966291483022</v>
+        <v>0.193601495275143</v>
       </c>
       <c r="C7" t="n">
-        <v>0.07534423804124038</v>
+        <v>0.08102568329100668</v>
       </c>
     </row>
     <row r="8">
@@ -2008,10 +2008,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1935295463490792</v>
+        <v>0.1902880495173756</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1699682818330214</v>
+        <v>0.1774296900480122</v>
       </c>
     </row>
     <row r="9">
@@ -2021,10 +2021,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2.523674947341295e-05</v>
+        <v>-0.002456515124674438</v>
       </c>
       <c r="C9" t="n">
-        <v>6.410211465695785e-06</v>
+        <v>1.19407434806113e-05</v>
       </c>
     </row>
     <row r="10">
@@ -2034,10 +2034,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.002154729792768374</v>
+        <v>0.003708460756106534</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9052500720499449</v>
+        <v>0.8376573915743859</v>
       </c>
     </row>
     <row r="11">
@@ -2047,10 +2047,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.05627065723971456</v>
+        <v>0.05463058981809009</v>
       </c>
       <c r="C11" t="n">
-        <v>6.159147051468501e-05</v>
+        <v>9.071464956849701e-05</v>
       </c>
     </row>
     <row r="12">
@@ -2060,10 +2060,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1.655704609551795</v>
+        <v>-0.01529995229867236</v>
       </c>
       <c r="C12" t="n">
-        <v>5.538767906912002e-05</v>
+        <v>0.0002084505247164407</v>
       </c>
     </row>
     <row r="13">
@@ -2073,10 +2073,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.00481825216289351</v>
+        <v>-0.004436373986703807</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1513635416249244</v>
+        <v>0.1864761160939227</v>
       </c>
     </row>
     <row r="14">
@@ -2086,10 +2086,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.002303269489850037</v>
+        <v>-0.001904220985053006</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6097755725622849</v>
+        <v>0.6727557642860387</v>
       </c>
     </row>
     <row r="15">
@@ -2099,10 +2099,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.8075995711725924</v>
+        <v>0.007831828967604027</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01082492747683463</v>
+        <v>0.01321721737907848</v>
       </c>
     </row>
     <row r="16">
@@ -2112,10 +2112,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.2383108704007371</v>
+        <v>-0.00231955201839038</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5567423483015221</v>
+        <v>0.5666982663385303</v>
       </c>
     </row>
     <row r="17">
@@ -2125,10 +2125,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-5.510942553079248e-05</v>
+        <v>-0.005745664977320711</v>
       </c>
       <c r="C17" t="n">
-        <v>0.01118085382050033</v>
+        <v>0.002003744113111139</v>
       </c>
     </row>
   </sheetData>
@@ -2174,10 +2174,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.439772424795597</v>
+        <v>-1.523288874484832</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03527182855000719</v>
+        <v>0.0257829749254198</v>
       </c>
     </row>
     <row r="3">
@@ -2187,10 +2187,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2039450441835768</v>
+        <v>0.2040105624696523</v>
       </c>
       <c r="C3" t="n">
-        <v>2.635544306612513e-15</v>
+        <v>2.600393463082252e-15</v>
       </c>
     </row>
     <row r="4">
@@ -2200,10 +2200,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0006872366602648436</v>
+        <v>0.0006875756125141047</v>
       </c>
       <c r="C4" t="n">
-        <v>6.331502102233056e-125</v>
+        <v>5.393541510927449e-125</v>
       </c>
     </row>
     <row r="5">
@@ -2213,10 +2213,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01378172301875742</v>
+        <v>0.01380876190534488</v>
       </c>
       <c r="C5" t="n">
-        <v>1.786680980446541e-07</v>
+        <v>1.701536067592299e-07</v>
       </c>
     </row>
     <row r="6">
@@ -2226,10 +2226,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.2630222801735604</v>
+        <v>0.2613667231281382</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0001909040086915867</v>
+        <v>0.0002094824317744869</v>
       </c>
     </row>
     <row r="7">
@@ -2239,10 +2239,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2280205530846643</v>
+        <v>0.2264110835546866</v>
       </c>
       <c r="C7" t="n">
-        <v>0.04051308637910989</v>
+        <v>0.0420012302410125</v>
       </c>
     </row>
     <row r="8">
@@ -2252,10 +2252,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.2637527344894842</v>
+        <v>0.2614376980727583</v>
       </c>
       <c r="C8" t="n">
-        <v>0.06137385256985805</v>
+        <v>0.06376737588770114</v>
       </c>
     </row>
     <row r="9">
@@ -2265,10 +2265,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2.515215051471691e-05</v>
+        <v>-0.002470865026191201</v>
       </c>
       <c r="C9" t="n">
-        <v>6.490621754435919e-06</v>
+        <v>9.918412004979853e-06</v>
       </c>
     </row>
     <row r="10">
@@ -2278,10 +2278,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.005868684844864531</v>
+        <v>0.007535482604583993</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7441871019030395</v>
+        <v>0.6753512160725446</v>
       </c>
     </row>
     <row r="11">
@@ -2291,10 +2291,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.04849305972194325</v>
+        <v>0.04793399601925067</v>
       </c>
       <c r="C11" t="n">
-        <v>0.00050794896708991</v>
+        <v>0.0005512302027593834</v>
       </c>
     </row>
     <row r="12">
@@ -2304,10 +2304,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1.50360955997635</v>
+        <v>-0.01428638106810362</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0002264894286935889</v>
+        <v>0.0004989866988253638</v>
       </c>
     </row>
     <row r="13">
@@ -2317,10 +2317,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.007355012025060088</v>
+        <v>-0.007108353286523008</v>
       </c>
       <c r="C13" t="n">
-        <v>0.02821628529882793</v>
+        <v>0.03395626024142972</v>
       </c>
     </row>
     <row r="14">
@@ -2330,10 +2330,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.006490978979232387</v>
+        <v>-0.006071607050715158</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1531375974981257</v>
+        <v>0.1812865611814716</v>
       </c>
     </row>
     <row r="15">
@@ -2343,10 +2343,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.7620028339538154</v>
+        <v>0.007323654280271371</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01646536640957692</v>
+        <v>0.02081833683015922</v>
       </c>
     </row>
     <row r="16">
@@ -2356,10 +2356,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.2355448050181312</v>
+        <v>-0.002375361267000309</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5611259306992464</v>
+        <v>0.5571561524055632</v>
       </c>
     </row>
     <row r="17">
@@ -2369,10 +2369,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-6.520759754072279e-05</v>
+        <v>-0.006138823094808763</v>
       </c>
       <c r="C17" t="n">
-        <v>0.002570388560319755</v>
+        <v>0.0009551725407871538</v>
       </c>
     </row>
   </sheetData>
@@ -2418,10 +2418,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.313717147534105</v>
+        <v>-1.39533907093111</v>
       </c>
       <c r="C2" t="n">
-        <v>0.05427430473687012</v>
+        <v>0.04067443768265452</v>
       </c>
     </row>
     <row r="3">
@@ -2431,10 +2431,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1852531635954602</v>
+        <v>0.185203098822982</v>
       </c>
       <c r="C3" t="n">
-        <v>5.513637044880349e-13</v>
+        <v>5.589307580953549e-13</v>
       </c>
     </row>
     <row r="4">
@@ -2444,10 +2444,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0006845497019588787</v>
+        <v>0.0006853120947471574</v>
       </c>
       <c r="C4" t="n">
-        <v>4.494054837353728e-125</v>
+        <v>3.142190222472092e-125</v>
       </c>
     </row>
     <row r="5">
@@ -2457,10 +2457,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01438643080119737</v>
+        <v>0.01440926805262873</v>
       </c>
       <c r="C5" t="n">
-        <v>4.693030436137759e-08</v>
+        <v>4.497327907159254e-08</v>
       </c>
     </row>
     <row r="6">
@@ -2470,10 +2470,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.2701200912202676</v>
+        <v>0.2688657638251276</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0001120387662990427</v>
+        <v>0.0001207069822273202</v>
       </c>
     </row>
     <row r="7">
@@ -2483,10 +2483,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2774940068347787</v>
+        <v>0.2733773395905599</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01232033225165774</v>
+        <v>0.01371855800744429</v>
       </c>
     </row>
     <row r="8">
@@ -2496,10 +2496,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.2948878616211127</v>
+        <v>0.291610152293285</v>
       </c>
       <c r="C8" t="n">
-        <v>0.03562351962884881</v>
+        <v>0.03780296864240736</v>
       </c>
     </row>
     <row r="9">
@@ -2509,10 +2509,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2.683221861350774e-05</v>
+        <v>-0.002622632092026842</v>
       </c>
       <c r="C9" t="n">
-        <v>1.636763072832666e-06</v>
+        <v>2.98707970365587e-06</v>
       </c>
     </row>
     <row r="10">
@@ -2522,10 +2522,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.001874333404683405</v>
+        <v>8.999064276997254e-05</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9170382836516581</v>
+        <v>0.9960107682293641</v>
       </c>
     </row>
     <row r="11">
@@ -2535,10 +2535,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.04408936682619413</v>
+        <v>0.04272427412052979</v>
       </c>
       <c r="C11" t="n">
-        <v>0.001430971397378956</v>
+        <v>0.001904747735540483</v>
       </c>
     </row>
     <row r="12">
@@ -2548,10 +2548,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1.47379055036327</v>
+        <v>-0.01362254632471224</v>
       </c>
       <c r="C12" t="n">
-        <v>0.000337651976695664</v>
+        <v>0.0009732901163630382</v>
       </c>
     </row>
     <row r="13">
@@ -2561,10 +2561,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.008401099660820435</v>
+        <v>-0.008026334329517557</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01225943758380185</v>
+        <v>0.01673389130290943</v>
       </c>
     </row>
     <row r="14">
@@ -2574,10 +2574,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.006943992415983552</v>
+        <v>-0.006488143824804379</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1263574740019939</v>
+        <v>0.1528517502004319</v>
       </c>
     </row>
     <row r="15">
@@ -2587,10 +2587,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.8630719360655159</v>
+        <v>0.008307923664644853</v>
       </c>
       <c r="C15" t="n">
-        <v>0.006739478676108636</v>
+        <v>0.008916269142508572</v>
       </c>
     </row>
     <row r="16">
@@ -2600,10 +2600,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.2216015058790742</v>
+        <v>-0.002232232727108944</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5861007131981681</v>
+        <v>0.58269511230188</v>
       </c>
     </row>
     <row r="17">
@@ -2613,10 +2613,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-6.443449587395466e-05</v>
+        <v>-0.006416880705965755</v>
       </c>
       <c r="C17" t="n">
-        <v>0.002731911104178532</v>
+        <v>0.0005121006208160888</v>
       </c>
     </row>
   </sheetData>
